--- a/multi_gaussian.xlsx
+++ b/multi_gaussian.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA_HK\python\fitting_software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA13177D-428E-4041-AD7F-C6E7AE36AFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CCE819-ACC5-48F0-9EC6-78A7B99A99BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{48BB1176-5158-4715-8E86-8CAAD586E4F0}"/>
+    <workbookView xWindow="2685" yWindow="2415" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{48BB1176-5158-4715-8E86-8CAAD586E4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +70,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF545D7E"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,8 +100,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -112,6 +122,1496 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.475444361612619E-97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3286450717125255E-94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6558918266121149E-90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4275996343409682E-87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0186522179262755E-83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0165302401665816E-80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4348261052364847E-77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0341480376479566E-74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3484605032375895E-71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8886175409721131E-68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4315690440138026E-65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1668161816555451E-62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5714970659116882E-59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1242165888893808E-56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0870975233671503E-53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7869559200038053E-51</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8137255133878915E-48</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9129595470977962E-46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.658667996906196E-43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0034576108830219E-41</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.3144249125231752E-39</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4857659755967378E-36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2844929261443462E-34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0223899143439013E-32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4405904568831148E-30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.3700986326849748E-28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8406889595608645E-26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0620164485284942E-24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2947000547505982E-22</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.1911032586772075E-21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.852150477671655E-19</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.3987183547915294E-17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8702626385793054E-15</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.488101969171893E-13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.9634867988808668E-12</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.4114869989130664E-10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0627394378025113E-8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.5531360770378379E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9426511992158221E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.5480125736902193E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.19358897580562831</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.2053027687420133</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.584235098773918</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36.073208650110324</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>52.87409191502617</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43.35601703482218</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>29.290865287806525</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>28.738922123586828</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32.203699856259099</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>31.259203702213256</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28.898445779511878</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32.041241979668953</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43.540840566570431</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>59.993269758059789</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>74.360089225560372</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>80.022564683239679</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>74.210472818780417</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59.228934463654554</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>40.675750541954734</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24.035861446917366</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12.220954726342887</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.3465274322142404</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.0126102312920322</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.65188166277687409</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.18167662983055588</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.3566289903297917E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.9892467345564324E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.5959424873468646E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.4379926065084919E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.2045624802225964E-5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.6243181563071519E-6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.5269970596629361E-7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.9532831827067695E-8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.1277779247793678E-9</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.319072654691359E-10</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.0361055753293801E-12</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.2293654105137824E-13</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.275331959124432E-14</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.3336168234130529E-16</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2670652662890832E-17</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.1876356482950203E-19</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.9001665896938664E-21</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.285202875942424E-22</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.0597049525926532E-24</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.840269496211404E-26</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.3700418785807531E-28</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.4405847315219286E-30</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.0223894837074874E-32</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2844929019940534E-34</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.4857659745868778E-36</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.3144249122083645E-39</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.003457610875762E-41</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.6586679969061633E-43</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.9129595470976118E-46</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.8137255133878395E-48</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.7869559200038053E-51</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.0870975233671503E-53</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.1242165888895017E-56</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.5714970659114852E-59</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.1668161816555451E-62</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.4315690440138026E-65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-379B-418C-A874-CA709EF26789}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="55385968"/>
+        <c:axId val="55380688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="55385968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55380688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="55380688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55385968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D45A7D2-D23C-FA19-E841-B787E65467F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8339780-D219-477A-B766-499A275603A0}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -449,19 +1949,19 @@
       </c>
       <c r="B1">
         <f>D1+E1+F1</f>
-        <v>4.5770508772451822E-86</v>
+        <v>1.475444361612619E-97</v>
       </c>
       <c r="D1">
         <f>$H$2*EXP((-4*LN(2)*(A1-$I$2)^2/($J$2^2))/($J$2*SQRT(3.1415926535/4*LN(2))))</f>
-        <v>4.5770508772451822E-86</v>
+        <v>1.4232774224266777E-291</v>
       </c>
       <c r="E1">
         <f>$H$3*EXP((-4*LN(2)*(A1-$I$3)^2/($J$3^2))/($J$3*SQRT(3.1415926535/4*LN(2))))</f>
-        <v>2.6531178988128529E-146</v>
+        <v>3.9796768482192797E-146</v>
       </c>
       <c r="F1">
         <f>$H$4*EXP((-4*LN(2)*(A1-$I$4)^2/($J$4^2))/($J$4*SQRT(3.1415926535/4*LN(2))))</f>
-        <v>5.0173104830606269E-168</v>
+        <v>1.475444361612619E-97</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -479,25 +1979,25 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B65" si="0">D2+E2+F2</f>
-        <v>5.7899674555502694E-79</v>
+        <v>5.3286450717125255E-94</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D65" si="1">$H$2*EXP((-4*LN(2)*(A2-$I$2)^2/($J$2^2))/($J$2*SQRT(3.1415926535/4*LN(2))))</f>
-        <v>5.7899674555502694E-79</v>
+        <v>1.9939404484913699E-278</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" si="2">$H$3*EXP((-4*LN(2)*(A2-$I$3)^2/($J$3^2))/($J$3*SQRT(3.1415926535/4*LN(2))))</f>
-        <v>3.0192155980661882E-140</v>
+        <v>4.528823397099282E-140</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F65" si="3">$H$4*EXP((-4*LN(2)*(A2-$I$4)^2/($J$4^2))/($J$4*SQRT(3.1415926535/4*LN(2))))</f>
-        <v>2.3329441025829567E-163</v>
+        <v>5.3286450717125255E-94</v>
       </c>
       <c r="H2">
         <v>50</v>
       </c>
       <c r="I2">
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J2">
         <v>0.3</v>
@@ -509,22 +2009,22 @@
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>3.6521608216480529E-72</v>
+        <v>1.6558918266121149E-90</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>3.6521608216480529E-72</v>
+        <v>1.3928944074173964E-265</v>
       </c>
       <c r="E3">
         <f t="shared" si="2"/>
-        <v>2.5617342236329196E-134</v>
+        <v>3.8426013354493791E-134</v>
       </c>
       <c r="F3">
         <f t="shared" si="3"/>
-        <v>9.3338088199209818E-159</v>
+        <v>1.6558918266121149E-90</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>2.4</v>
@@ -539,25 +2039,25 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>1.1487011395905537E-65</v>
+        <v>4.4275996343409682E-87</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>1.1487011395905537E-65</v>
+        <v>4.8518525486747862E-253</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>1.6206020386155042E-128</v>
+        <v>2.4309030579232565E-128</v>
       </c>
       <c r="F4">
         <f t="shared" si="3"/>
-        <v>3.2131772319965339E-154</v>
+        <v>4.4275996343409682E-87</v>
       </c>
       <c r="H4">
         <v>80</v>
       </c>
       <c r="I4">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="J4">
         <v>0.5</v>
@@ -569,19 +2069,19 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>1.8015553036431268E-59</v>
+        <v>1.0186522179262755E-83</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>1.8015553036431268E-59</v>
+        <v>8.4271433401970785E-241</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>7.6440066864994947E-123</v>
+        <v>1.1466010029749241E-122</v>
       </c>
       <c r="F5">
         <f t="shared" si="3"/>
-        <v>9.5176925691916648E-150</v>
+        <v>1.0186522179262755E-83</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -590,19 +2090,19 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>1.4088719839759457E-53</v>
+        <v>2.0165302401665816E-80</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>1.4088719839759457E-53</v>
+        <v>7.2985494726317257E-229</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>2.688240393203853E-117</v>
+        <v>4.0323605898057795E-117</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>2.4257714254030874E-145</v>
+        <v>2.0165302401665816E-80</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -611,19 +2111,19 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>5.4938760342334378E-48</v>
+        <v>3.4348261052364847E-77</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>5.4938760342334378E-48</v>
+        <v>3.1519267738153321E-217</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>7.0488377395521761E-112</v>
+        <v>1.0573256609328265E-111</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>5.3197263331925445E-141</v>
+        <v>3.4348261052364847E-77</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -632,19 +2132,19 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>1.0682417959261869E-42</v>
+        <v>5.0341480376479566E-74</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>1.0682417959261869E-42</v>
+        <v>6.7873316457913696E-206</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>1.3780636944920838E-106</v>
+        <v>2.0670955417381258E-106</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>1.0038063024838603E-136</v>
+        <v>5.0341480376479566E-74</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -653,19 +2153,19 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>1.0357231049445467E-37</v>
+        <v>6.3484605032375895E-71</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>1.0357231049445467E-37</v>
+        <v>7.2879504201397828E-195</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>2.0087386498188806E-101</v>
+        <v>3.013107974728321E-101</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>1.629790405856637E-132</v>
+        <v>6.3484605032375895E-71</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -674,19 +2174,19 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>5.0072716277416049E-33</v>
+        <v>6.8886175409721131E-68</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>5.0072716277416049E-33</v>
+        <v>3.9020707231420988E-184</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>2.1831317573255256E-96</v>
+        <v>3.2746976359882884E-96</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>2.2768520313534725E-128</v>
+        <v>6.8886175409721131E-68</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -695,19 +2195,19 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>1.20709659673632E-28</v>
+        <v>6.4315690440138026E-65</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>1.20709659673632E-28</v>
+        <v>1.0417613756990512E-173</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>1.7690447760734408E-91</v>
+        <v>2.6535671641101612E-91</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>2.736900884163149E-124</v>
+        <v>6.4315690440138026E-65</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -716,19 +2216,19 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>1.4509962427879746E-24</v>
+        <v>5.1668161816555451E-62</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>1.4509962427879746E-24</v>
+        <v>1.3868348752518365E-163</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>1.0688089218694769E-86</v>
+        <v>1.6032133828042154E-86</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>2.8307697372996433E-120</v>
+        <v>5.1668161816555451E-62</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -737,19 +2237,19 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>8.6970894780782573E-21</v>
+        <v>3.5714970659116882E-59</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>8.6970894780782573E-21</v>
+        <v>9.2058659235056365E-154</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>4.8146384764938009E-82</v>
+        <v>7.2219577147407013E-82</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>2.5192497844495522E-116</v>
+        <v>3.5714970659116882E-59</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -758,19 +2258,19 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>2.5993512916032599E-17</v>
+        <v>2.1242165888893808E-56</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>2.5993512916032599E-17</v>
+        <v>3.0471085399823929E-144</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>1.6170731301968151E-77</v>
+        <v>2.4256096952952227E-77</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>1.9291194860872692E-112</v>
+        <v>2.1242165888893808E-56</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -779,19 +2279,19 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>3.8738196954148827E-14</v>
+        <v>1.0870975233671503E-53</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>3.8738196954148827E-14</v>
+        <v>5.0291500243920295E-135</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>4.0494683243799708E-73</v>
+        <v>6.0742024865699566E-73</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>1.2710663969442167E-108</v>
+        <v>1.0870975233671503E-53</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -800,19 +2300,19 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>2.8787053648021699E-11</v>
+        <v>4.7869559200038053E-51</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>2.8787053648021699E-11</v>
+        <v>4.138897260660413E-126</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>7.5608168562365242E-69</v>
+        <v>1.1341225284354785E-68</v>
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
-        <v>7.2060713658380161E-105</v>
+        <v>4.7869559200038053E-51</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -821,19 +2321,19 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>1.0666904807079159E-8</v>
+        <v>1.8137255133878915E-48</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>1.0666904807079159E-8</v>
+        <v>1.6984708157131997E-117</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>1.0525477261749109E-64</v>
+        <v>1.5788215892623663E-64</v>
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
-        <v>3.5152004249440769E-101</v>
+        <v>1.8137255133878912E-48</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -842,19 +2342,19 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1.9708928302691753E-6</v>
+        <v>5.9129595470977962E-46</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>1.9708928302691753E-6</v>
+        <v>3.4754810088421658E-109</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>1.0924894284188843E-60</v>
+        <v>1.6387341426283265E-60</v>
       </c>
       <c r="F18">
         <f t="shared" si="3"/>
-        <v>1.475444361612619E-97</v>
+        <v>5.9129595470977798E-46</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -863,19 +2363,19 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>1.8158124430078565E-4</v>
+        <v>1.658667996906196E-43</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>1.8158124430078565E-4</v>
+        <v>3.5461339670373424E-101</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>8.4546387495600048E-57</v>
+        <v>1.2681958124340008E-56</v>
       </c>
       <c r="F19">
         <f t="shared" si="3"/>
-        <v>5.3286450717125255E-94</v>
+        <v>1.6586679969060691E-43</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -884,19 +2384,19 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>8.3418495718901361E-3</v>
+        <v>4.0034576108830219E-41</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>8.3418495718901361E-3</v>
+        <v>1.8041753515478257E-93</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>4.8783756036524441E-53</v>
+        <v>7.3175634054786652E-53</v>
       </c>
       <c r="F20">
         <f t="shared" si="3"/>
-        <v>1.6558918266120205E-90</v>
+        <v>4.0034576108757044E-41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -905,19 +2405,19 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>0.19108962497666604</v>
+        <v>8.3144249125231752E-39</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>0.19108962497666604</v>
+        <v>4.5770508772449215E-86</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>2.09873585132613E-49</v>
+        <v>3.1481037769891949E-49</v>
       </c>
       <c r="F21">
         <f t="shared" si="3"/>
-        <v>4.4275996343409682E-87</v>
+        <v>8.3144249122083645E-39</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -926,19 +2426,19 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>2.1827060398775715</v>
+        <v>1.4857659755967378E-36</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>2.1827060398775715</v>
+        <v>5.7899674555497756E-79</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>6.7319780977440258E-46</v>
+        <v>1.0097967146616038E-45</v>
       </c>
       <c r="F22">
         <f t="shared" si="3"/>
-        <v>1.0186522179262755E-83</v>
+        <v>1.4857659745869411E-36</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -947,19 +2447,19 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>12.431879166222624</v>
+        <v>2.2844929261443462E-34</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>12.431879166222624</v>
+        <v>3.6521608216478448E-72</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>1.6100151924162195E-42</v>
+        <v>2.4150227886243289E-42</v>
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
-        <v>2.0165302401665816E-80</v>
+        <v>2.2844929019941184E-34</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -968,19 +2468,19 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>35.307071602944546</v>
+        <v>3.0223899143439013E-32</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>35.307071602944546</v>
+        <v>1.148701139590521E-65</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>2.8709102822469064E-39</v>
+        <v>4.3063654233703598E-39</v>
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>3.4348261052364847E-77</v>
+        <v>3.0223894837073588E-32</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -989,19 +2489,19 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>3.4405904568831148E-30</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>1.8015553036429729E-59</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>3.8169074900174698E-36</v>
+        <v>5.7253612350262047E-36</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>5.0341480376478128E-74</v>
+        <v>3.4405847315218795E-30</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -1010,19 +2510,19 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>35.307071602944546</v>
+        <v>3.3700986326849748E-28</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>35.307071602944546</v>
+        <v>1.4088719839758655E-53</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>3.7836069481068562E-33</v>
+        <v>5.6754104221602847E-33</v>
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
-        <v>6.3484605032375895E-71</v>
+        <v>3.3700418785807531E-28</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -1031,19 +2531,19 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>12.431879166222549</v>
+        <v>2.8406889595608645E-26</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>12.431879166222549</v>
+        <v>5.4938760342330464E-48</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>2.7964223294640942E-30</v>
+        <v>4.1946334941961413E-30</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>6.8886175409721131E-68</v>
+        <v>2.8402694962114447E-26</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -1052,19 +2552,19 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>2.1827060398775524</v>
+        <v>2.0620164485284942E-24</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>2.1827060398775524</v>
+        <v>1.068241795926126E-42</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>1.5409972905118858E-27</v>
+        <v>2.3114959357678287E-27</v>
       </c>
       <c r="F28">
         <f t="shared" si="3"/>
-        <v>6.4315690440138026E-65</v>
+        <v>2.0597049525927263E-24</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -1073,19 +2573,19 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>0.19108962497666604</v>
+        <v>1.2947000547505982E-22</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>0.19108962497666604</v>
+        <v>1.0357231049444732E-37</v>
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>6.331452538806336E-25</v>
+        <v>9.497178808209504E-25</v>
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
-        <v>5.1668161816555451E-62</v>
+        <v>1.2852028759423876E-22</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -1094,19 +2594,19 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>8.3418495718901361E-3</v>
+        <v>7.1911032586772075E-21</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>8.3418495718901361E-3</v>
+        <v>5.0072716277413921E-33</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>1.9395777931898714E-22</v>
+        <v>2.9093666897848072E-22</v>
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
-        <v>3.5714970659114852E-59</v>
+        <v>6.900166589693719E-21</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -1115,19 +2615,19 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>1.8158124430078408E-4</v>
+        <v>3.852150477671655E-19</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>1.8158124430078402E-4</v>
+        <v>1.2070965967362514E-28</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>4.4300988544635895E-20</v>
+        <v>6.645148281695384E-20</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
-        <v>2.1242165888893808E-56</v>
+        <v>3.1876356482950203E-19</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -1136,19 +2636,19 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>1.9708928302766919E-6</v>
+        <v>2.3987183547915294E-17</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>1.9708928302691473E-6</v>
+        <v>1.4509962427879129E-24</v>
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>7.54435295601875E-18</v>
+        <v>1.1316529434028126E-17</v>
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
-        <v>1.0870975233671503E-53</v>
+        <v>1.2670652662890923E-17</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
@@ -1157,19 +2657,19 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>1.0666905765007104E-8</v>
+        <v>1.8702626385793054E-15</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>1.0666904807078931E-8</v>
+        <v>8.6970894780781339E-21</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>9.5792817276568155E-16</v>
+        <v>1.4368922591485222E-15</v>
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
-        <v>4.7869559200038053E-51</v>
+        <v>4.3336168234130529E-16</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -1178,19 +2678,19 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>2.8877740903897051E-11</v>
+        <v>1.488101969171893E-13</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>2.8787053648021699E-11</v>
+        <v>2.5993512916031674E-17</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
-        <v>9.0687255875352636E-14</v>
+        <v>1.3603088381302895E-13</v>
       </c>
       <c r="F34">
         <f t="shared" si="3"/>
-        <v>1.8137255133878395E-48</v>
+        <v>1.275331959124432E-14</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -1199,19 +2699,19 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>6.4399462375377135E-12</v>
+        <v>9.9634867988808668E-12</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>3.8738196954148827E-14</v>
+        <v>3.8738196954147451E-14</v>
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>6.4012080405835646E-12</v>
+        <v>9.601812060875346E-12</v>
       </c>
       <c r="F35">
         <f t="shared" si="3"/>
-        <v>5.9129595470976966E-46</v>
+        <v>3.229365410513737E-13</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
@@ -1220,19 +2720,19 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>3.3688371977215057E-10</v>
+        <v>5.4114869989130664E-10</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>2.5993512916032226E-17</v>
+        <v>2.8787053648020875E-11</v>
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>3.3688369377863763E-10</v>
+        <v>5.0532554066795645E-10</v>
       </c>
       <c r="F36">
         <f t="shared" si="3"/>
-        <v>1.6586679969060691E-43</v>
+        <v>7.0361055753293801E-12</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -1241,19 +2741,19 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>1.3219054870326725E-8</v>
+        <v>3.0627394378025113E-8</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>8.6970894780781339E-21</v>
+        <v>1.0666904807078931E-8</v>
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>1.3219054870318028E-8</v>
+        <v>1.9828582305477043E-8</v>
       </c>
       <c r="F37">
         <f t="shared" si="3"/>
-        <v>4.0034576108757044E-41</v>
+        <v>1.3190726546913683E-10</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -1262,19 +2762,19 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>3.867436458959407E-7</v>
+        <v>2.5531360770378379E-6</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>1.4509962427879129E-24</v>
+        <v>1.9708928302691473E-6</v>
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>3.867436458959407E-7</v>
+        <v>5.8011546884391106E-7</v>
       </c>
       <c r="F38">
         <f t="shared" si="3"/>
-        <v>8.3144249122083645E-39</v>
+        <v>2.1277779247793678E-9</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
@@ -1283,19 +2783,19 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>8.4362285259828884E-6</v>
+        <v>1.9426511992158221E-4</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>1.20709659673632E-28</v>
+        <v>1.815812443007808E-4</v>
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>8.4362285259828884E-6</v>
+        <v>1.2654342788974333E-5</v>
       </c>
       <c r="F39">
         <f t="shared" si="3"/>
-        <v>1.4857659745868778E-36</v>
+        <v>2.9532831827067695E-8</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
@@ -1304,19 +2804,19 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>1.3720686806283297E-4</v>
+        <v>8.5480125736902193E-3</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>5.0072716277416049E-33</v>
+        <v>8.3418495718900025E-3</v>
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>1.3720686806283297E-4</v>
+        <v>2.0581030209424947E-4</v>
       </c>
       <c r="F40">
         <f t="shared" si="3"/>
-        <v>2.2844929019940534E-34</v>
+        <v>3.5269970596628991E-7</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
@@ -1325,19 +2825,19 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>1.6638176738721206E-3</v>
+        <v>0.19358897580562831</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>1.0357231049445173E-37</v>
+        <v>0.19108962497666382</v>
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>1.6638176738721206E-3</v>
+        <v>2.4957265108081807E-3</v>
       </c>
       <c r="F41">
         <f t="shared" si="3"/>
-        <v>3.0223894837073588E-32</v>
+        <v>3.6243181563071519E-6</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -1346,19 +2846,19 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>1.5043122159786627E-2</v>
+        <v>2.2053027687420133</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>1.0682417959261869E-42</v>
+        <v>2.1827060398775311</v>
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>1.5043122159786627E-2</v>
+        <v>2.2564683239679941E-2</v>
       </c>
       <c r="F42">
         <f t="shared" si="3"/>
-        <v>3.4405847315218312E-30</v>
+        <v>3.2045624802225964E-5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
@@ -1367,19 +2867,19 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>0.10140808886047897</v>
+        <v>12.584235098773918</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>5.4938760342330464E-48</v>
+        <v>12.431879166222549</v>
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>0.10140808886047897</v>
+        <v>0.15211213329071846</v>
       </c>
       <c r="F43">
         <f t="shared" si="3"/>
-        <v>3.3700418785807531E-28</v>
+        <v>2.4379926065084919E-4</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
@@ -1388,19 +2888,19 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>0.5096940697856932</v>
+        <v>36.073208650110324</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>1.4088719839759457E-53</v>
+        <v>35.307071602944433</v>
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>0.5096940697856932</v>
+        <v>0.76454110467853975</v>
       </c>
       <c r="F44">
         <f t="shared" si="3"/>
-        <v>2.840269496211404E-26</v>
+        <v>1.5959424873468646E-3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
@@ -1409,19 +2909,19 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>1.9100684455277397</v>
+        <v>52.87409191502617</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>1.8015553036429729E-59</v>
+        <v>50</v>
       </c>
       <c r="E45">
         <f t="shared" si="2"/>
-        <v>1.9100684455277397</v>
+        <v>2.8651026682916094</v>
       </c>
       <c r="F45">
         <f t="shared" si="3"/>
-        <v>2.0597049525927263E-24</v>
+        <v>8.9892467345564324E-3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -1430,19 +2930,19 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>5.3369194279828189</v>
+        <v>43.35601703482218</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>1.1487011395905537E-65</v>
+        <v>35.307071602944653</v>
       </c>
       <c r="E46">
         <f t="shared" si="2"/>
-        <v>5.3369194279828189</v>
+        <v>8.0053791419742293</v>
       </c>
       <c r="F46">
         <f t="shared" si="3"/>
-        <v>1.2852028759423876E-22</v>
+        <v>4.3566289903297903E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
@@ -1451,19 +2951,19 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>11.118206327835514</v>
+        <v>29.290865287806525</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>3.6521608216480529E-72</v>
+        <v>12.4318791662227</v>
       </c>
       <c r="E47">
         <f t="shared" si="2"/>
-        <v>11.118206327835514</v>
+        <v>16.67730949175327</v>
       </c>
       <c r="F47">
         <f t="shared" si="3"/>
-        <v>6.9001665896936212E-21</v>
+        <v>0.18167662983055444</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
@@ -1472,19 +2972,19 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>17.269556280621678</v>
+        <v>28.738922123586828</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>5.7899674555497756E-79</v>
+        <v>2.1827060398775715</v>
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>17.269556280621678</v>
+        <v>25.904334420932518</v>
       </c>
       <c r="F48">
         <f t="shared" si="3"/>
-        <v>3.1876356482950203E-19</v>
+        <v>0.65188166277673809</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
@@ -1493,19 +2993,19 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>32.203699856259099</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>4.5770508772451822E-86</v>
+        <v>0.1910896249766684</v>
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F49">
         <f t="shared" si="3"/>
-        <v>1.2670652662890832E-17</v>
+        <v>2.0126102312824306</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
@@ -1514,19 +3014,19 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>17.269556280621636</v>
+        <v>31.259203702213256</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>1.8041753515478257E-93</v>
+        <v>8.3418495718901361E-3</v>
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
-        <v>17.269556280621636</v>
+        <v>25.90433442093245</v>
       </c>
       <c r="F50">
         <f t="shared" si="3"/>
-        <v>4.3336168234130529E-16</v>
+        <v>5.3465274317089149</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
@@ -1535,19 +3035,19 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>11.118206327835527</v>
+        <v>28.898445779511878</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>3.5461339670375441E-101</v>
+        <v>1.8158124430078725E-4</v>
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
-        <v>11.118206327835514</v>
+        <v>16.67730949175327</v>
       </c>
       <c r="F51">
         <f t="shared" si="3"/>
-        <v>1.275331959124432E-14</v>
+        <v>12.220954706514306</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -1556,19 +3056,19 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>5.3369194279831422</v>
+        <v>32.041241979668953</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>3.4754810088424622E-109</v>
+        <v>1.9708928302692384E-6</v>
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
-        <v>5.3369194279828189</v>
+        <v>8.0053791419742293</v>
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
-        <v>3.2293654105136905E-13</v>
+        <v>24.035860866801897</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
@@ -1577,19 +3077,19 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>1.9100684455347565</v>
+        <v>43.540840566570431</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>1.6984708157131997E-117</v>
+        <v>1.0666904807079159E-8</v>
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
-        <v>1.9100684455277204</v>
+        <v>2.8651026682915806</v>
       </c>
       <c r="F53">
         <f t="shared" si="3"/>
-        <v>7.0361055753293801E-12</v>
+        <v>40.675737887611945</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
@@ -1598,19 +3098,19 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>0.50969406991760047</v>
+        <v>59.993269758059789</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>4.1388972606606479E-126</v>
+        <v>2.8787053648022517E-11</v>
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
-        <v>0.5096940697856932</v>
+        <v>0.76454110467853975</v>
       </c>
       <c r="F54">
         <f t="shared" si="3"/>
-        <v>1.319072654691359E-10</v>
+        <v>59.228728653352462</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
@@ -1619,19 +3119,19 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>0.10140809098825537</v>
+        <v>74.360089225560372</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>5.0291500243920295E-135</v>
+        <v>3.8738196954148827E-14</v>
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
-        <v>0.10140808886047745</v>
+        <v>0.15211213329071618</v>
       </c>
       <c r="F55">
         <f t="shared" si="3"/>
-        <v>2.1277779247793678E-9</v>
+        <v>74.207977092269616</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
@@ -1640,19 +3140,19 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>1.5043151692618455E-2</v>
+        <v>80.022564683239679</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>3.0471085399827394E-144</v>
+        <v>2.599351291603315E-17</v>
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
-        <v>1.5043122159786627E-2</v>
+        <v>2.2564683239679941E-2</v>
       </c>
       <c r="F56">
         <f t="shared" si="3"/>
-        <v>2.9532831827067695E-8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
@@ -1661,19 +3161,19 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>1.6641703735780868E-3</v>
+        <v>74.210472818780417</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>9.2058659235066818E-154</v>
+        <v>8.6970894780787523E-21</v>
       </c>
       <c r="E57">
         <f t="shared" si="2"/>
-        <v>1.6638176738721206E-3</v>
+        <v>2.4957265108081807E-3</v>
       </c>
       <c r="F57">
         <f t="shared" si="3"/>
-        <v>3.5269970596628615E-7</v>
+        <v>74.207977092269616</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
@@ -1682,19 +3182,19 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>1.4083118621913842E-4</v>
+        <v>59.228934463654554</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>1.3868348752518365E-163</v>
+        <v>1.4509962427879746E-24</v>
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
-        <v>1.3720686806283127E-4</v>
+        <v>2.058103020942469E-4</v>
       </c>
       <c r="F58">
         <f t="shared" si="3"/>
-        <v>3.6243181563071519E-6</v>
+        <v>59.228728653352462</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
@@ -1703,19 +3203,19 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>4.0481853328208856E-5</v>
+        <v>40.675750541954734</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>1.041761375699288E-173</v>
+        <v>1.2070965967363716E-28</v>
       </c>
       <c r="E59">
         <f t="shared" si="2"/>
-        <v>8.4362285259828884E-6</v>
+        <v>1.2654342788974333E-5</v>
       </c>
       <c r="F59">
         <f t="shared" si="3"/>
-        <v>3.2045624802225964E-5</v>
+        <v>40.675737887611945</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
@@ -1724,19 +3224,19 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>2.4418600429674511E-4</v>
+        <v>24.035861446917366</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>3.9020707231420988E-184</v>
+        <v>5.0072716277416049E-33</v>
       </c>
       <c r="E60">
         <f t="shared" si="2"/>
-        <v>3.8674364589592969E-7</v>
+        <v>5.8011546884389454E-7</v>
       </c>
       <c r="F60">
         <f t="shared" si="3"/>
-        <v>2.4379926065084919E-4</v>
+        <v>24.035860866801897</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
@@ -1745,19 +3245,19 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>1.5959557064017349E-3</v>
+        <v>12.220954726342887</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>7.2879504201414391E-195</v>
+        <v>1.0357231049445615E-37</v>
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
-        <v>1.3219054870317792E-8</v>
+        <v>1.9828582305476689E-8</v>
       </c>
       <c r="F61">
         <f t="shared" si="3"/>
-        <v>1.5959424873468646E-3</v>
+        <v>12.220954706514306</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
@@ -1766,19 +3266,19 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>8.9892470714400159E-3</v>
+        <v>5.3465274322142404</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>6.7873316457929133E-206</v>
+        <v>1.0682417959262476E-42</v>
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
-        <v>3.3688369377863763E-10</v>
+        <v>5.0532554066795645E-10</v>
       </c>
       <c r="F62">
         <f t="shared" si="3"/>
-        <v>8.9892467345563214E-3</v>
+        <v>5.3465274317089149</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
@@ -1787,19 +3287,19 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>4.3566289909699109E-2</v>
+        <v>2.0126102312920322</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>3.1519267738153321E-217</v>
+        <v>5.4938760342334378E-48</v>
       </c>
       <c r="E63">
         <f t="shared" si="2"/>
-        <v>6.401208040583428E-12</v>
+        <v>9.6018120608751425E-12</v>
       </c>
       <c r="F63">
         <f t="shared" si="3"/>
-        <v>4.3566289903297903E-2</v>
+        <v>2.0126102312824306</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
@@ -1808,19 +3308,19 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>0.18167662983064511</v>
+        <v>0.65188166277687409</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>7.2985494726325561E-229</v>
+        <v>1.4088719839759856E-53</v>
       </c>
       <c r="E64">
         <f t="shared" si="2"/>
-        <v>9.0687255875352636E-14</v>
+        <v>1.3603088381302895E-13</v>
       </c>
       <c r="F64">
         <f t="shared" si="3"/>
-        <v>0.18167662983055444</v>
+        <v>0.65188166277673809</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
@@ -1829,19 +3329,19 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>0.65188166277673909</v>
+        <v>0.18167662983055588</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>8.4271433401970785E-241</v>
+        <v>1.8015553036431268E-59</v>
       </c>
       <c r="E65">
         <f t="shared" si="2"/>
-        <v>9.5792817276564073E-16</v>
+        <v>1.4368922591484611E-15</v>
       </c>
       <c r="F65">
         <f t="shared" si="3"/>
-        <v>0.65188166277673809</v>
+        <v>0.18167662983055444</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
@@ -1850,19 +3350,19 @@
       </c>
       <c r="B66">
         <f t="shared" ref="B66:B101" si="4">D66+E66+F66</f>
-        <v>2.0126102312824306</v>
+        <v>4.3566289903297917E-2</v>
       </c>
       <c r="D66">
         <f t="shared" ref="D66:D101" si="5">$H$2*EXP((-4*LN(2)*(A66-$I$2)^2/($J$2^2))/($J$2*SQRT(3.1415926535/4*LN(2))))</f>
-        <v>4.8518525486764405E-253</v>
+        <v>1.1487011395906515E-65</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" si="6">$H$3*EXP((-4*LN(2)*(A66-$I$3)^2/($J$3^2))/($J$3*SQRT(3.1415926535/4*LN(2))))</f>
-        <v>7.5443529560186421E-18</v>
+        <v>1.1316529434027965E-17</v>
       </c>
       <c r="F66">
         <f t="shared" ref="F66:F101" si="7">$H$4*EXP((-4*LN(2)*(A66-$I$4)^2/($J$4^2))/($J$4*SQRT(3.1415926535/4*LN(2))))</f>
-        <v>2.0126102312824306</v>
+        <v>4.3566289903297903E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
@@ -1871,19 +3371,19 @@
       </c>
       <c r="B67">
         <f t="shared" si="4"/>
-        <v>5.3465274317088713</v>
+        <v>8.9892467345564324E-3</v>
       </c>
       <c r="D67">
         <f t="shared" si="5"/>
-        <v>1.3928944074178713E-265</v>
+        <v>3.6521608216483636E-72</v>
       </c>
       <c r="E67">
         <f t="shared" si="6"/>
-        <v>4.4300988544635895E-20</v>
+        <v>6.645148281695384E-20</v>
       </c>
       <c r="F67">
         <f t="shared" si="7"/>
-        <v>5.3465274317088713</v>
+        <v>8.9892467345564324E-3</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
@@ -1892,19 +3392,19 @@
       </c>
       <c r="B68">
         <f t="shared" si="4"/>
-        <v>12.220954706514306</v>
+        <v>1.5959424873468646E-3</v>
       </c>
       <c r="D68">
         <f t="shared" si="5"/>
-        <v>1.9939404484913699E-278</v>
+        <v>5.7899674555502694E-79</v>
       </c>
       <c r="E68">
         <f t="shared" si="6"/>
-        <v>1.9395777931898298E-22</v>
+        <v>2.9093666897847447E-22</v>
       </c>
       <c r="F68">
         <f t="shared" si="7"/>
-        <v>12.220954706514306</v>
+        <v>1.5959424873468646E-3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
@@ -1913,19 +3413,19 @@
       </c>
       <c r="B69">
         <f t="shared" si="4"/>
-        <v>24.035860866801897</v>
+        <v>2.4379926065084919E-4</v>
       </c>
       <c r="D69">
         <f t="shared" si="5"/>
-        <v>1.4232774224266777E-291</v>
+        <v>4.5770508772455722E-86</v>
       </c>
       <c r="E69">
         <f t="shared" si="6"/>
-        <v>6.331452538806336E-25</v>
+        <v>9.497178808209504E-25</v>
       </c>
       <c r="F69">
         <f t="shared" si="7"/>
-        <v>24.035860866801897</v>
+        <v>2.4379926065084919E-4</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
@@ -1934,19 +3434,19 @@
       </c>
       <c r="B70">
         <f t="shared" si="4"/>
-        <v>40.675737887611945</v>
+        <v>3.2045624802225964E-5</v>
       </c>
       <c r="D70">
         <f t="shared" si="5"/>
-        <v>5.0658266557171155E-305</v>
+        <v>1.8041753515479281E-93</v>
       </c>
       <c r="E70">
         <f t="shared" si="6"/>
-        <v>1.540997290511842E-27</v>
+        <v>2.3114959357677631E-27</v>
       </c>
       <c r="F70">
         <f t="shared" si="7"/>
-        <v>40.675737887611945</v>
+        <v>3.2045624802225964E-5</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
@@ -1955,19 +3455,19 @@
       </c>
       <c r="B71">
         <f t="shared" si="4"/>
-        <v>59.228728653352462</v>
+        <v>3.6243181563071519E-6</v>
       </c>
       <c r="D71">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.5461339670379477E-101</v>
       </c>
       <c r="E71">
         <f t="shared" si="6"/>
-        <v>2.7964223294640542E-30</v>
+        <v>4.194633494196081E-30</v>
       </c>
       <c r="F71">
         <f t="shared" si="7"/>
-        <v>59.228728653352462</v>
+        <v>3.6243181563071519E-6</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
@@ -1976,19 +3476,19 @@
       </c>
       <c r="B72">
         <f t="shared" si="4"/>
-        <v>74.207977092269502</v>
+        <v>3.5269970596629361E-7</v>
       </c>
       <c r="D72">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.4754810088427581E-109</v>
       </c>
       <c r="E72">
         <f t="shared" si="6"/>
-        <v>3.7836069481068562E-33</v>
+        <v>5.6754104221602847E-33</v>
       </c>
       <c r="F72">
         <f t="shared" si="7"/>
-        <v>74.207977092269502</v>
+        <v>3.5269970596629361E-7</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
@@ -1997,19 +3497,19 @@
       </c>
       <c r="B73">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>2.9532831827067695E-8</v>
       </c>
       <c r="D73">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.6984708157133928E-117</v>
       </c>
       <c r="E73">
         <f t="shared" si="6"/>
-        <v>3.8169074900174157E-36</v>
+        <v>5.7253612350261239E-36</v>
       </c>
       <c r="F73">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>2.9532831827067695E-8</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
@@ -2018,19 +3518,19 @@
       </c>
       <c r="B74">
         <f t="shared" si="4"/>
-        <v>74.207977092269616</v>
+        <v>2.1277779247793678E-9</v>
       </c>
       <c r="D74">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.1388972606611183E-126</v>
       </c>
       <c r="E74">
         <f t="shared" si="6"/>
-        <v>2.8709102822469064E-39</v>
+        <v>4.3063654233703598E-39</v>
       </c>
       <c r="F74">
         <f t="shared" si="7"/>
-        <v>74.207977092269616</v>
+        <v>2.1277779247793678E-9</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -2039,19 +3539,19 @@
       </c>
       <c r="B75">
         <f t="shared" si="4"/>
-        <v>59.228728653352462</v>
+        <v>1.319072654691359E-10</v>
       </c>
       <c r="D75">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.0291500243926013E-135</v>
       </c>
       <c r="E75">
         <f t="shared" si="6"/>
-        <v>1.6100151924161048E-42</v>
+        <v>2.4150227886241572E-42</v>
       </c>
       <c r="F75">
         <f t="shared" si="7"/>
-        <v>59.228728653352462</v>
+        <v>1.319072654691359E-10</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
@@ -2060,19 +3560,19 @@
       </c>
       <c r="B76">
         <f t="shared" si="4"/>
-        <v>40.675737887611945</v>
+        <v>7.0361055753293801E-12</v>
       </c>
       <c r="D76">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.0471085399829124E-144</v>
       </c>
       <c r="E76">
         <f t="shared" si="6"/>
-        <v>6.7319780977438344E-46</v>
+        <v>1.0097967146615752E-45</v>
       </c>
       <c r="F76">
         <f t="shared" si="7"/>
-        <v>40.675737887611945</v>
+        <v>7.0361055753293801E-12</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
@@ -2081,19 +3581,19 @@
       </c>
       <c r="B77">
         <f t="shared" si="4"/>
-        <v>24.035860866802029</v>
+        <v>3.2293654105137824E-13</v>
       </c>
       <c r="D77">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.2058659235072065E-154</v>
       </c>
       <c r="E77">
         <f t="shared" si="6"/>
-        <v>2.09873585132613E-49</v>
+        <v>3.1481037769891949E-49</v>
       </c>
       <c r="F77">
         <f t="shared" si="7"/>
-        <v>24.035860866802029</v>
+        <v>3.2293654105137824E-13</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -2102,19 +3602,19 @@
       </c>
       <c r="B78">
         <f t="shared" si="4"/>
-        <v>12.220954706514306</v>
+        <v>1.275331959124432E-14</v>
       </c>
       <c r="D78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.3868348752520728E-163</v>
       </c>
       <c r="E78">
         <f t="shared" si="6"/>
-        <v>4.8783756036523736E-53</v>
+        <v>7.3175634054785613E-53</v>
       </c>
       <c r="F78">
         <f t="shared" si="7"/>
-        <v>12.220954706514306</v>
+        <v>1.275331959124432E-14</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
@@ -2123,19 +3623,19 @@
       </c>
       <c r="B79">
         <f t="shared" si="4"/>
-        <v>5.3465274317089149</v>
+        <v>4.3336168234130529E-16</v>
       </c>
       <c r="D79">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.041761375699288E-173</v>
       </c>
       <c r="E79">
         <f t="shared" si="6"/>
-        <v>8.4546387495600048E-57</v>
+        <v>1.2681958124340008E-56</v>
       </c>
       <c r="F79">
         <f t="shared" si="7"/>
-        <v>5.3465274317089149</v>
+        <v>4.3336168234130529E-16</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
@@ -2144,19 +3644,19 @@
       </c>
       <c r="B80">
         <f t="shared" si="4"/>
-        <v>2.0126102312824306</v>
+        <v>1.2670652662890832E-17</v>
       </c>
       <c r="D80">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.9020707231425425E-184</v>
       </c>
       <c r="E80">
         <f t="shared" si="6"/>
-        <v>1.0924894284188223E-60</v>
+        <v>1.6387341426282334E-60</v>
       </c>
       <c r="F80">
         <f t="shared" si="7"/>
-        <v>2.0126102312824306</v>
+        <v>1.2670652662890832E-17</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
@@ -2165,19 +3665,19 @@
       </c>
       <c r="B81">
         <f t="shared" si="4"/>
-        <v>0.65188166277673809</v>
+        <v>3.1876356482950203E-19</v>
       </c>
       <c r="D81">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.2879504201418543E-195</v>
       </c>
       <c r="E81">
         <f t="shared" si="6"/>
-        <v>1.0525477261748512E-64</v>
+        <v>1.5788215892622766E-64</v>
       </c>
       <c r="F81">
         <f t="shared" si="7"/>
-        <v>0.65188166277673809</v>
+        <v>3.1876356482950203E-19</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
@@ -2186,19 +3686,19 @@
       </c>
       <c r="B82">
         <f t="shared" si="4"/>
-        <v>0.18167662983055655</v>
+        <v>6.9001665896938664E-21</v>
       </c>
       <c r="D82">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.7873316457932984E-206</v>
       </c>
       <c r="E82">
         <f t="shared" si="6"/>
-        <v>7.5608168562365242E-69</v>
+        <v>1.1341225284354785E-68</v>
       </c>
       <c r="F82">
         <f t="shared" si="7"/>
-        <v>0.18167662983055655</v>
+        <v>6.9001665896938664E-21</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
@@ -2207,19 +3707,19 @@
       </c>
       <c r="B83">
         <f t="shared" si="4"/>
-        <v>4.3566289903298479E-2</v>
+        <v>1.285202875942424E-22</v>
       </c>
       <c r="D83">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.1519267738160487E-217</v>
       </c>
       <c r="E83">
         <f t="shared" si="6"/>
-        <v>4.0494683243799708E-73</v>
+        <v>6.0742024865699566E-73</v>
       </c>
       <c r="F83">
         <f t="shared" si="7"/>
-        <v>4.3566289903298479E-2</v>
+        <v>1.285202875942424E-22</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
@@ -2228,19 +3728,19 @@
       </c>
       <c r="B84">
         <f t="shared" si="4"/>
-        <v>8.9892467345563214E-3</v>
+        <v>2.0597049525926532E-24</v>
       </c>
       <c r="D84">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.2985494726317257E-229</v>
       </c>
       <c r="E84">
         <f t="shared" si="6"/>
-        <v>1.6170731301966314E-77</v>
+        <v>2.4256096952949469E-77</v>
       </c>
       <c r="F84">
         <f t="shared" si="7"/>
-        <v>8.9892467345563214E-3</v>
+        <v>2.0597049525926532E-24</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
@@ -2249,19 +3749,19 @@
       </c>
       <c r="B85">
         <f t="shared" si="4"/>
-        <v>1.5959424873468646E-3</v>
+        <v>2.840269496211404E-26</v>
       </c>
       <c r="D85">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.4271433401970785E-241</v>
       </c>
       <c r="E85">
         <f t="shared" si="6"/>
-        <v>4.8146384764932531E-82</v>
+        <v>7.2219577147398796E-82</v>
       </c>
       <c r="F85">
         <f t="shared" si="7"/>
-        <v>1.5959424873468646E-3</v>
+        <v>2.840269496211404E-26</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
@@ -2270,19 +3770,19 @@
       </c>
       <c r="B86">
         <f t="shared" si="4"/>
-        <v>2.4379926065084919E-4</v>
+        <v>3.3700418785807531E-28</v>
       </c>
       <c r="D86">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.8518525486764405E-253</v>
       </c>
       <c r="E86">
         <f t="shared" si="6"/>
-        <v>1.0688089218693858E-86</v>
+        <v>1.6032133828040788E-86</v>
       </c>
       <c r="F86">
         <f t="shared" si="7"/>
-        <v>2.4379926065084919E-4</v>
+        <v>3.3700418785807531E-28</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
@@ -2291,19 +3791,19 @@
       </c>
       <c r="B87">
         <f t="shared" si="4"/>
-        <v>3.204562480222654E-5</v>
+        <v>3.4405847315219286E-30</v>
       </c>
       <c r="D87">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.3928944074178713E-265</v>
       </c>
       <c r="E87">
         <f t="shared" si="6"/>
-        <v>1.7690447760734408E-91</v>
+        <v>2.6535671641101612E-91</v>
       </c>
       <c r="F87">
         <f t="shared" si="7"/>
-        <v>3.204562480222654E-5</v>
+        <v>3.4405847315219286E-30</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
@@ -2312,19 +3812,19 @@
       </c>
       <c r="B88">
         <f t="shared" si="4"/>
-        <v>3.6243181563072294E-6</v>
+        <v>3.0223894837074874E-32</v>
       </c>
       <c r="D88">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.9939404484922768E-278</v>
       </c>
       <c r="E88">
         <f t="shared" si="6"/>
-        <v>2.1831317573255256E-96</v>
+        <v>3.2746976359882884E-96</v>
       </c>
       <c r="F88">
         <f t="shared" si="7"/>
-        <v>3.6243181563072294E-6</v>
+        <v>3.0223894837074874E-32</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
@@ -2333,19 +3833,19 @@
       </c>
       <c r="B89">
         <f t="shared" si="4"/>
-        <v>3.5269970596628615E-7</v>
+        <v>2.2844929019940534E-34</v>
       </c>
       <c r="D89">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.4232774224266777E-291</v>
       </c>
       <c r="E89">
         <f t="shared" si="6"/>
-        <v>2.0087386498186522E-101</v>
+        <v>3.0131079747279784E-101</v>
       </c>
       <c r="F89">
         <f t="shared" si="7"/>
-        <v>3.5269970596628615E-7</v>
+        <v>2.2844929019940534E-34</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
@@ -2354,19 +3854,19 @@
       </c>
       <c r="B90">
         <f t="shared" si="4"/>
-        <v>2.9532831827067695E-8</v>
+        <v>1.4857659745868778E-36</v>
       </c>
       <c r="D90">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.0658266557171155E-305</v>
       </c>
       <c r="E90">
         <f t="shared" si="6"/>
-        <v>1.3780636944919664E-106</v>
+        <v>2.0670955417379496E-106</v>
       </c>
       <c r="F90">
         <f t="shared" si="7"/>
-        <v>2.9532831827067695E-8</v>
+        <v>1.4857659745868778E-36</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
@@ -2375,7 +3875,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="4"/>
-        <v>2.1277779247793678E-9</v>
+        <v>8.3144249122083645E-39</v>
       </c>
       <c r="D91">
         <f t="shared" si="5"/>
@@ -2383,11 +3883,11 @@
       </c>
       <c r="E91">
         <f t="shared" si="6"/>
-        <v>7.0488377395521761E-112</v>
+        <v>1.0573256609328265E-111</v>
       </c>
       <c r="F91">
         <f t="shared" si="7"/>
-        <v>2.1277779247793678E-9</v>
+        <v>8.3144249122083645E-39</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
@@ -2396,7 +3896,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="4"/>
-        <v>1.3190726546913825E-10</v>
+        <v>4.003457610875762E-41</v>
       </c>
       <c r="D92">
         <f t="shared" si="5"/>
@@ -2404,11 +3904,11 @@
       </c>
       <c r="E92">
         <f t="shared" si="6"/>
-        <v>2.688240393203853E-117</v>
+        <v>4.0323605898057795E-117</v>
       </c>
       <c r="F92">
         <f t="shared" si="7"/>
-        <v>1.3190726546913825E-10</v>
+        <v>4.003457610875762E-41</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
@@ -2417,7 +3917,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="4"/>
-        <v>7.0361055753295813E-12</v>
+        <v>1.6586679969061633E-43</v>
       </c>
       <c r="D93">
         <f t="shared" si="5"/>
@@ -2425,11 +3925,11 @@
       </c>
       <c r="E93">
         <f t="shared" si="6"/>
-        <v>7.6440066864994947E-123</v>
+        <v>1.1466010029749241E-122</v>
       </c>
       <c r="F93">
         <f t="shared" si="7"/>
-        <v>7.0361055753295813E-12</v>
+        <v>1.6586679969061633E-43</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
@@ -2438,7 +3938,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="4"/>
-        <v>3.2293654105136905E-13</v>
+        <v>5.9129595470976118E-46</v>
       </c>
       <c r="D94">
         <f t="shared" si="5"/>
@@ -2446,11 +3946,11 @@
       </c>
       <c r="E94">
         <f t="shared" si="6"/>
-        <v>1.62060203861532E-128</v>
+        <v>2.4309030579229802E-128</v>
       </c>
       <c r="F94">
         <f t="shared" si="7"/>
-        <v>3.2293654105136905E-13</v>
+        <v>5.9129595470976118E-46</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
@@ -2459,7 +3959,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="4"/>
-        <v>1.275331959124432E-14</v>
+        <v>1.8137255133878395E-48</v>
       </c>
       <c r="D95">
         <f t="shared" si="5"/>
@@ -2467,11 +3967,11 @@
       </c>
       <c r="E95">
         <f t="shared" si="6"/>
-        <v>2.5617342236324826E-134</v>
+        <v>3.8426013354487236E-134</v>
       </c>
       <c r="F95">
         <f t="shared" si="7"/>
-        <v>1.275331959124432E-14</v>
+        <v>1.8137255133878395E-48</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
@@ -2480,7 +3980,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="4"/>
-        <v>4.3336168234130529E-16</v>
+        <v>4.7869559200038053E-51</v>
       </c>
       <c r="D96">
         <f t="shared" si="5"/>
@@ -2488,11 +3988,11 @@
       </c>
       <c r="E96">
         <f t="shared" si="6"/>
-        <v>3.0192155980661882E-140</v>
+        <v>4.528823397099282E-140</v>
       </c>
       <c r="F96">
         <f t="shared" si="7"/>
-        <v>4.3336168234130529E-16</v>
+        <v>4.7869559200038053E-51</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
@@ -2501,7 +4001,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="4"/>
-        <v>1.2670652662891284E-17</v>
+        <v>1.0870975233671503E-53</v>
       </c>
       <c r="D97">
         <f t="shared" si="5"/>
@@ -2509,11 +4009,11 @@
       </c>
       <c r="E97">
         <f t="shared" si="6"/>
-        <v>2.6531178988128529E-146</v>
+        <v>3.9796768482192797E-146</v>
       </c>
       <c r="F97">
         <f t="shared" si="7"/>
-        <v>1.2670652662891284E-17</v>
+        <v>1.0870975233671503E-53</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.4">
@@ -2522,7 +4022,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="4"/>
-        <v>3.1876356482951565E-19</v>
+        <v>2.1242165888895017E-56</v>
       </c>
       <c r="D98">
         <f t="shared" si="5"/>
@@ -2530,11 +4030,11 @@
       </c>
       <c r="E98">
         <f t="shared" si="6"/>
-        <v>1.7382864279298016E-152</v>
+        <v>2.6074296418947024E-152</v>
       </c>
       <c r="F98">
         <f t="shared" si="7"/>
-        <v>3.1876356482951565E-19</v>
+        <v>2.1242165888895017E-56</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
@@ -2543,7 +4043,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="4"/>
-        <v>6.9001665896936212E-21</v>
+        <v>3.5714970659114852E-59</v>
       </c>
       <c r="D99">
         <f t="shared" si="5"/>
@@ -2551,11 +4051,11 @@
       </c>
       <c r="E99">
         <f t="shared" si="6"/>
-        <v>8.4915798132478105E-159</v>
+        <v>1.2737369719871716E-158</v>
       </c>
       <c r="F99">
         <f t="shared" si="7"/>
-        <v>6.9001665896936212E-21</v>
+        <v>3.5714970659114852E-59</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
@@ -2564,7 +4064,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="4"/>
-        <v>1.2852028759423876E-22</v>
+        <v>5.1668161816555451E-62</v>
       </c>
       <c r="D100">
         <f t="shared" si="5"/>
@@ -2572,11 +4072,11 @@
       </c>
       <c r="E100">
         <f t="shared" si="6"/>
-        <v>3.0928440297643742E-165</v>
+        <v>4.6392660446465608E-165</v>
       </c>
       <c r="F100">
         <f t="shared" si="7"/>
-        <v>1.2852028759423876E-22</v>
+        <v>5.1668161816555451E-62</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
@@ -2585,7 +4085,7 @@
       </c>
       <c r="B101">
         <f t="shared" si="4"/>
-        <v>2.0597049525927263E-24</v>
+        <v>6.4315690440138026E-65</v>
       </c>
       <c r="D101">
         <f t="shared" si="5"/>
@@ -2593,11 +4093,2654 @@
       </c>
       <c r="E101">
         <f t="shared" si="6"/>
-        <v>8.3990450280954668E-172</v>
+        <v>1.25985675421432E-171</v>
       </c>
       <c r="F101">
         <f t="shared" si="7"/>
-        <v>2.0597049525927263E-24</v>
+        <v>6.4315690440138026E-65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DBC8AE-0810-43CE-AD24-D68E2E176239}">
+  <dimension ref="A1:I101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="N88" sqref="N88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1.475444361612619E-97</v>
+      </c>
+      <c r="C1" s="1">
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <f ca="1">B1+C1</f>
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <f ca="1">SQRT(D1)</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0.05</v>
+      </c>
+      <c r="B2">
+        <v>5.3286450717125255E-94</v>
+      </c>
+      <c r="C2" s="1">
+        <f t="shared" ref="C2:C65" ca="1" si="0">RANDBETWEEN(1,10)</f>
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D65" ca="1" si="1">B2+C2</f>
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E65" ca="1" si="2">SQRT(D2)</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <v>1.6558918266121149E-90</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>0.15</v>
+      </c>
+      <c r="B4">
+        <v>4.4275996343409682E-87</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>0.2</v>
+      </c>
+      <c r="B5">
+        <v>1.0186522179262755E-83</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>0.25</v>
+      </c>
+      <c r="B6">
+        <v>2.0165302401665816E-80</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>3.1622776601683795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>0.3</v>
+      </c>
+      <c r="B7">
+        <v>3.4348261052364847E-77</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>0.35</v>
+      </c>
+      <c r="B8">
+        <v>5.0341480376479566E-74</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>0.4</v>
+      </c>
+      <c r="B9">
+        <v>6.3484605032375895E-71</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>1.7320508075688772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>0.45</v>
+      </c>
+      <c r="B10">
+        <v>6.8886175409721131E-68</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>0.5</v>
+      </c>
+      <c r="B11">
+        <v>6.4315690440138026E-65</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>2.4494897427831779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B12">
+        <v>5.1668161816555451E-62</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>3.1622776601683795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>0.6</v>
+      </c>
+      <c r="B13">
+        <v>3.5714970659116882E-59</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>0.65</v>
+      </c>
+      <c r="B14">
+        <v>2.1242165888893808E-56</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>0.7</v>
+      </c>
+      <c r="B15">
+        <v>1.0870975233671503E-53</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>0.75</v>
+      </c>
+      <c r="B16">
+        <v>4.7869559200038053E-51</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>3.1622776601683795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>0.8</v>
+      </c>
+      <c r="B17">
+        <v>1.8137255133878915E-48</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>2.6457513110645907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0.85</v>
+      </c>
+      <c r="B18">
+        <v>5.9129595470977962E-46</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>1.7320508075688772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0.9</v>
+      </c>
+      <c r="B19">
+        <v>1.658667996906196E-43</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0.95</v>
+      </c>
+      <c r="B20">
+        <v>4.0034576108830219E-41</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>8.3144249125231752E-39</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>1.05</v>
+      </c>
+      <c r="B22">
+        <v>1.4857659755967378E-36</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B23">
+        <v>2.2844929261443462E-34</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>3.1622776601683795</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B24">
+        <v>3.0223899143439013E-32</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>2.4494897427831779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>1.2</v>
+      </c>
+      <c r="B25">
+        <v>3.4405904568831148E-30</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>1.25</v>
+      </c>
+      <c r="B26">
+        <v>3.3700986326849748E-28</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>1.7320508075688772</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>1.3</v>
+      </c>
+      <c r="B27">
+        <v>2.8406889595608645E-26</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>3.1622776601683795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>1.35</v>
+      </c>
+      <c r="B28">
+        <v>2.0620164485284942E-24</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>1.4</v>
+      </c>
+      <c r="B29">
+        <v>1.2947000547505982E-22</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>1.7320508075688772</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>1.45</v>
+      </c>
+      <c r="B30">
+        <v>7.1911032586772075E-21</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>1.5</v>
+      </c>
+      <c r="B31">
+        <v>3.852150477671655E-19</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>1.55</v>
+      </c>
+      <c r="B32">
+        <v>2.3987183547915294E-17</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>1.6</v>
+      </c>
+      <c r="B33">
+        <v>1.8702626385793054E-15</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0000000000000018</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="H33">
+        <v>7.0000000000000018</v>
+      </c>
+      <c r="I33">
+        <v>2.6457513110645907</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>1.65</v>
+      </c>
+      <c r="B34">
+        <v>1.488101969171893E-13</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0000000000001492</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6457513110646187</v>
+      </c>
+      <c r="H34">
+        <v>10.000000000000149</v>
+      </c>
+      <c r="I34">
+        <v>3.1622776601684031</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>1.7</v>
+      </c>
+      <c r="B35">
+        <v>9.9634867988808668E-12</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.0000000000099636</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8284271247479515</v>
+      </c>
+      <c r="H35">
+        <v>7.0000000000099636</v>
+      </c>
+      <c r="I35">
+        <v>2.6457513110664737</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>1.75</v>
+      </c>
+      <c r="B36">
+        <v>5.4114869989130664E-10</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.000000000541149</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1622776602539426</v>
+      </c>
+      <c r="H36">
+        <v>8.0000000005411493</v>
+      </c>
+      <c r="I36">
+        <v>2.8284271248418529</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>1.8</v>
+      </c>
+      <c r="B37">
+        <v>3.0627394378025113E-8</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.000000030627394</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6457513168526239</v>
+      </c>
+      <c r="H37">
+        <v>1.0000000306273944</v>
+      </c>
+      <c r="I37">
+        <v>1.000000015313697</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>1.85</v>
+      </c>
+      <c r="B38">
+        <v>2.5531360770378379E-6</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.0000025531360777</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0000004255226496</v>
+      </c>
+      <c r="H38">
+        <v>5.0000025531360768</v>
+      </c>
+      <c r="I38">
+        <v>2.2360685483982992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>1.9</v>
+      </c>
+      <c r="B39">
+        <v>1.9426511992158221E-4</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.0001942651199216</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4142822437971572</v>
+      </c>
+      <c r="H39">
+        <v>10.000194265119921</v>
+      </c>
+      <c r="I39">
+        <v>3.1623083760316484</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>1.95</v>
+      </c>
+      <c r="B40">
+        <v>8.5480125736902193E-3</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.008548012573691</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1636289309231085</v>
+      </c>
+      <c r="H40">
+        <v>10.008548012573691</v>
+      </c>
+      <c r="I40">
+        <v>3.1636289309231085</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>0.19358897580562831</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="1"/>
+        <v>10.193588975805628</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1927400420024221</v>
+      </c>
+      <c r="H41">
+        <v>9.1935889758056284</v>
+      </c>
+      <c r="I41">
+        <v>3.0320931674019564</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="B42">
+        <v>2.2053027687420133</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.2053027687420137</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.4910445136010746</v>
+      </c>
+      <c r="H42">
+        <v>6.2053027687420137</v>
+      </c>
+      <c r="I42">
+        <v>2.4910445136010746</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>2.1</v>
+      </c>
+      <c r="B43">
+        <v>12.584235098773918</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="1"/>
+        <v>22.584235098773917</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.752287354398292</v>
+      </c>
+      <c r="H43">
+        <v>17.584235098773917</v>
+      </c>
+      <c r="I43">
+        <v>4.1933560662998692</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>2.15</v>
+      </c>
+      <c r="B44">
+        <v>36.073208650110324</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="1"/>
+        <v>37.073208650110324</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.0887772705289791</v>
+      </c>
+      <c r="H44">
+        <v>39.073208650110324</v>
+      </c>
+      <c r="I44">
+        <v>6.2508566333031768</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B45">
+        <v>52.87409191502617</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="1"/>
+        <v>53.87409191502617</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.3398972686970332</v>
+      </c>
+      <c r="H45">
+        <v>59.87409191502617</v>
+      </c>
+      <c r="I45">
+        <v>7.7378350922610242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>2.25</v>
+      </c>
+      <c r="B46">
+        <v>43.35601703482218</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="1"/>
+        <v>49.35601703482218</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.0253837642382342</v>
+      </c>
+      <c r="H46">
+        <v>50.35601703482218</v>
+      </c>
+      <c r="I46">
+        <v>7.0961973644214673</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B47">
+        <v>29.290865287806525</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="1"/>
+        <v>31.290865287806525</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.5938238520538457</v>
+      </c>
+      <c r="H47">
+        <v>30.290865287806525</v>
+      </c>
+      <c r="I47">
+        <v>5.5037137723365053</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>2.35</v>
+      </c>
+      <c r="B48">
+        <v>28.738922123586828</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="1"/>
+        <v>36.738922123586832</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.0612640697784181</v>
+      </c>
+      <c r="H48">
+        <v>38.738922123586832</v>
+      </c>
+      <c r="I48">
+        <v>6.2240599389455458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>2.4</v>
+      </c>
+      <c r="B49">
+        <v>32.203699856259099</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="1"/>
+        <v>36.203699856259099</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.0169510431994624</v>
+      </c>
+      <c r="H49">
+        <v>35.203699856259099</v>
+      </c>
+      <c r="I49">
+        <v>5.9332705868061586</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="B50">
+        <v>31.259203702213256</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="1"/>
+        <v>34.259203702213256</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.8531362278878536</v>
+      </c>
+      <c r="H50">
+        <v>34.259203702213256</v>
+      </c>
+      <c r="I50">
+        <v>5.8531362278878536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>2.5</v>
+      </c>
+      <c r="B51">
+        <v>28.898445779511878</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="1"/>
+        <v>31.898445779511878</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.6478709067676007</v>
+      </c>
+      <c r="H51">
+        <v>36.898445779511874</v>
+      </c>
+      <c r="I51">
+        <v>6.0744090889165401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="B52">
+        <v>32.041241979668953</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="1"/>
+        <v>41.041241979668953</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.406343885530104</v>
+      </c>
+      <c r="H52">
+        <v>35.041241979668953</v>
+      </c>
+      <c r="I52">
+        <v>5.9195643403606111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>2.6</v>
+      </c>
+      <c r="B53">
+        <v>43.540840566570431</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="1"/>
+        <v>52.540840566570431</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.2485060920558269</v>
+      </c>
+      <c r="H53">
+        <v>47.540840566570431</v>
+      </c>
+      <c r="I53">
+        <v>6.8949866255541377</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>2.65</v>
+      </c>
+      <c r="B54">
+        <v>59.993269758059789</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="1"/>
+        <v>69.993269758059796</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.3661980467868311</v>
+      </c>
+      <c r="H54">
+        <v>64.993269758059796</v>
+      </c>
+      <c r="I54">
+        <v>8.0618403456071857</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>2.7</v>
+      </c>
+      <c r="B55">
+        <v>74.360089225560372</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="1"/>
+        <v>83.360089225560372</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.1301746547128211</v>
+      </c>
+      <c r="H55">
+        <v>82.360089225560372</v>
+      </c>
+      <c r="I55">
+        <v>9.075245959507674</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>2.75</v>
+      </c>
+      <c r="B56">
+        <v>80.022564683239679</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="1"/>
+        <v>84.022564683239679</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.1663823116450729</v>
+      </c>
+      <c r="H56">
+        <v>85.022564683239679</v>
+      </c>
+      <c r="I56">
+        <v>9.220768117854373</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>2.8</v>
+      </c>
+      <c r="B57">
+        <v>74.210472818780417</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="1"/>
+        <v>80.210472818780417</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.9560299697343808</v>
+      </c>
+      <c r="H57">
+        <v>81.210472818780417</v>
+      </c>
+      <c r="I57">
+        <v>9.0116853484118291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>2.85</v>
+      </c>
+      <c r="B58">
+        <v>59.228934463654554</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="1"/>
+        <v>67.228934463654554</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.1993252444121616</v>
+      </c>
+      <c r="H58">
+        <v>63.228934463654554</v>
+      </c>
+      <c r="I58">
+        <v>7.9516623710803112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>2.9</v>
+      </c>
+      <c r="B59">
+        <v>40.675750541954734</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="1"/>
+        <v>46.675750541954734</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.8319653498795452</v>
+      </c>
+      <c r="H59">
+        <v>44.675750541954734</v>
+      </c>
+      <c r="I59">
+        <v>6.6839921111529401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>2.95</v>
+      </c>
+      <c r="B60">
+        <v>24.035861446917366</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="1"/>
+        <v>29.035861446917366</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.3884934301637006</v>
+      </c>
+      <c r="H60">
+        <v>25.035861446917366</v>
+      </c>
+      <c r="I60">
+        <v>5.0035848595699228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>12.220954726342887</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="1"/>
+        <v>14.220954726342887</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.7710681147843097</v>
+      </c>
+      <c r="H61">
+        <v>20.220954726342889</v>
+      </c>
+      <c r="I61">
+        <v>4.4967715893008053</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>3.05</v>
+      </c>
+      <c r="B62">
+        <v>5.3465274322142404</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.346527432214241</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.3684606918018565</v>
+      </c>
+      <c r="H62">
+        <v>12.346527432214241</v>
+      </c>
+      <c r="I62">
+        <v>3.5137625748212189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>3.1</v>
+      </c>
+      <c r="B63">
+        <v>2.0126102312920322</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0126102312920322</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6481333484724732</v>
+      </c>
+      <c r="H63">
+        <v>6.0126102312920322</v>
+      </c>
+      <c r="I63">
+        <v>2.4520624444112413</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>3.15</v>
+      </c>
+      <c r="B64">
+        <v>0.65188166277687409</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.6518816627768746</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.9414081088446182</v>
+      </c>
+      <c r="H64">
+        <v>6.6518816627768738</v>
+      </c>
+      <c r="I64">
+        <v>2.5791242046045153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>3.2</v>
+      </c>
+      <c r="B65">
+        <v>0.18167662983055588</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.1816766298305561</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.4862977757763765</v>
+      </c>
+      <c r="H65">
+        <v>5.1816766298305561</v>
+      </c>
+      <c r="I65">
+        <v>2.2763296399754047</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>3.25</v>
+      </c>
+      <c r="B66">
+        <v>4.3566289903297917E-2</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" ref="C66:C101" ca="1" si="3">RANDBETWEEN(1,10)</f>
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D101" ca="1" si="4">B66+C66</f>
+        <v>8.043566289903298</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66:E101" ca="1" si="5">SQRT(D66)</f>
+        <v>2.8361181727677178</v>
+      </c>
+      <c r="H66">
+        <v>10.043566289903298</v>
+      </c>
+      <c r="I66">
+        <v>3.1691586091427006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>3.3</v>
+      </c>
+      <c r="B67">
+        <v>8.9892467345564324E-3</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0089892467345565</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0044845676935792</v>
+      </c>
+      <c r="H67">
+        <v>2.0089892467345565</v>
+      </c>
+      <c r="I67">
+        <v>1.4173881778590354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>3.35</v>
+      </c>
+      <c r="B68">
+        <v>1.5959424873468646E-3</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.0015959424873468</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.4147777007315838</v>
+      </c>
+      <c r="H68">
+        <v>10.001595942487347</v>
+      </c>
+      <c r="I68">
+        <v>3.1625299907648854</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>3.4</v>
+      </c>
+      <c r="B69">
+        <v>2.4379926065084919E-4</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.0002437992606517</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.828470222445457</v>
+      </c>
+      <c r="H69">
+        <v>2.0002437992606508</v>
+      </c>
+      <c r="I69">
+        <v>1.4142997558016654</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>3.45</v>
+      </c>
+      <c r="B70">
+        <v>3.2045624802225964E-5</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.0000320456248026</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.0000080113901553</v>
+      </c>
+      <c r="H70">
+        <v>3.0000320456248022</v>
+      </c>
+      <c r="I70">
+        <v>1.7320600583192265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>3.5</v>
+      </c>
+      <c r="B71">
+        <v>3.6243181563071519E-6</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.0000036243181563</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.4142148437624873</v>
+      </c>
+      <c r="H71">
+        <v>10.000003624318156</v>
+      </c>
+      <c r="I71">
+        <v>3.1622782332233443</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>3.55</v>
+      </c>
+      <c r="B72">
+        <v>3.5269970596629361E-7</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.0000003526997059</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.4142136870712665</v>
+      </c>
+      <c r="H72">
+        <v>1.0000003526997059</v>
+      </c>
+      <c r="I72">
+        <v>1.0000001763498374</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>3.6</v>
+      </c>
+      <c r="B73">
+        <v>2.9532831827067695E-8</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0000000295328317</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0000000147664159</v>
+      </c>
+      <c r="H73">
+        <v>2.0000000295328317</v>
+      </c>
+      <c r="I73">
+        <v>1.4142135728145278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>3.65</v>
+      </c>
+      <c r="B74">
+        <v>2.1277779247793678E-9</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.000000002127778</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.6457513114667028</v>
+      </c>
+      <c r="H74">
+        <v>7.000000002127778</v>
+      </c>
+      <c r="I74">
+        <v>2.6457513114667028</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>3.7</v>
+      </c>
+      <c r="B75">
+        <v>1.319072654691359E-10</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="4"/>
+        <v>10.000000000131907</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.1622776601892357</v>
+      </c>
+      <c r="H75">
+        <v>2.0000000001319074</v>
+      </c>
+      <c r="I75">
+        <v>1.4142135624197314</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>3.75</v>
+      </c>
+      <c r="B76">
+        <v>7.0361055753293801E-12</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="4"/>
+        <v>10.000000000007036</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.162277660169492</v>
+      </c>
+      <c r="H76">
+        <v>7.0000000000070361</v>
+      </c>
+      <c r="I76">
+        <v>2.6457513110659203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>3.8</v>
+      </c>
+      <c r="B77">
+        <v>3.2293654105137824E-13</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0000000000003229</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0000000000001614</v>
+      </c>
+      <c r="H77">
+        <v>5.0000000000003233</v>
+      </c>
+      <c r="I77">
+        <v>2.2360679774998622</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>3.85</v>
+      </c>
+      <c r="B78">
+        <v>1.275331959124432E-14</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.0000000000000124</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.0000000000000022</v>
+      </c>
+      <c r="H78">
+        <v>9.0000000000000124</v>
+      </c>
+      <c r="I78">
+        <v>3.0000000000000022</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>3.9</v>
+      </c>
+      <c r="B79">
+        <v>4.3336168234130529E-16</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>10</v>
+      </c>
+      <c r="I79">
+        <v>3.1622776601683795</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>3.95</v>
+      </c>
+      <c r="B80">
+        <v>1.2670652662890832E-17</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>8</v>
+      </c>
+      <c r="I80">
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>3.1876356482950203E-19</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H81">
+        <v>7</v>
+      </c>
+      <c r="I81">
+        <v>2.6457513110645907</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>4.05</v>
+      </c>
+      <c r="B82">
+        <v>6.9001665896938664E-21</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H82">
+        <v>10</v>
+      </c>
+      <c r="I82">
+        <v>3.1622776601683795</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B83">
+        <v>1.285202875942424E-22</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83">
+        <v>1.7320508075688772</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="B84">
+        <v>2.0597049525926532E-24</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>4.2</v>
+      </c>
+      <c r="B85">
+        <v>2.840269496211404E-26</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85">
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>4.25</v>
+      </c>
+      <c r="B86">
+        <v>3.3700418785807531E-28</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>4.3</v>
+      </c>
+      <c r="B87">
+        <v>3.4405847315219286E-30</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87">
+        <v>1.7320508075688772</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="B88">
+        <v>3.0223894837074874E-32</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H88">
+        <v>10</v>
+      </c>
+      <c r="I88">
+        <v>3.1622776601683795</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B89">
+        <v>2.2844929019940534E-34</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="H89">
+        <v>8</v>
+      </c>
+      <c r="I89">
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>4.45</v>
+      </c>
+      <c r="B90">
+        <v>1.4857659745868778E-36</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>4</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>4.5</v>
+      </c>
+      <c r="B91">
+        <v>8.3144249122083645E-39</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>6</v>
+      </c>
+      <c r="I91">
+        <v>2.4494897427831779</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>4.55</v>
+      </c>
+      <c r="B92">
+        <v>4.003457610875762E-41</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92">
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B93">
+        <v>1.6586679969061633E-43</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="H93">
+        <v>5</v>
+      </c>
+      <c r="I93">
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="B94">
+        <v>5.9129595470976118E-46</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H94">
+        <v>5</v>
+      </c>
+      <c r="I94">
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>4.7</v>
+      </c>
+      <c r="B95">
+        <v>1.8137255133878395E-48</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H95">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>4.75</v>
+      </c>
+      <c r="B96">
+        <v>4.7869559200038053E-51</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="H96">
+        <v>5</v>
+      </c>
+      <c r="I96">
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>4.8</v>
+      </c>
+      <c r="B97">
+        <v>1.0870975233671503E-53</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H97">
+        <v>5</v>
+      </c>
+      <c r="I97">
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="B98">
+        <v>2.1242165888895017E-56</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H98">
+        <v>4</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B99">
+        <v>3.5714970659114852E-59</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H99">
+        <v>5</v>
+      </c>
+      <c r="I99">
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>4.95</v>
+      </c>
+      <c r="B100">
+        <v>5.1668161816555451E-62</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <v>4</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>5</v>
+      </c>
+      <c r="B101">
+        <v>6.4315690440138026E-65</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101">
+        <v>1.7320508075688772</v>
       </c>
     </row>
   </sheetData>

--- a/multi_gaussian.xlsx
+++ b/multi_gaussian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA_HK\python\fitting_software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CCE819-ACC5-48F0-9EC6-78A7B99A99BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E98987C-0D2E-47D6-9261-4D537F772061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2415" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{48BB1176-5158-4715-8E86-8CAAD586E4F0}"/>
+    <workbookView xWindow="6735" yWindow="3855" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{48BB1176-5158-4715-8E86-8CAAD586E4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>FWHM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bg1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bg2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bg3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -100,11 +112,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -518,307 +533,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1.475444361612619E-97</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3286450717125255E-94</c:v>
+                  <c:v>9.7550000000000008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6558918266121149E-90</c:v>
+                  <c:v>9.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4275996343409682E-87</c:v>
+                  <c:v>9.2949999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0186522179262755E-83</c:v>
+                  <c:v>9.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0165302401665816E-80</c:v>
+                  <c:v>8.875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4348261052364847E-77</c:v>
+                  <c:v>8.68</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0341480376479566E-74</c:v>
+                  <c:v>8.4949999999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3484605032375895E-71</c:v>
+                  <c:v>8.32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.8886175409721131E-68</c:v>
+                  <c:v>8.1549999999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.4315690440138026E-65</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1668161816555451E-62</c:v>
+                  <c:v>7.8550000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5714970659116882E-59</c:v>
+                  <c:v>7.72</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1242165888893808E-56</c:v>
+                  <c:v>7.5949999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0870975233671503E-53</c:v>
+                  <c:v>7.4799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7869559200038053E-51</c:v>
+                  <c:v>7.375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8137255133878915E-48</c:v>
+                  <c:v>7.28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.9129595470977962E-46</c:v>
+                  <c:v>7.1950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.658667996906196E-43</c:v>
+                  <c:v>7.12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.0034576108830219E-41</c:v>
+                  <c:v>7.0549999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.3144249125231752E-39</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4857659755967378E-36</c:v>
+                  <c:v>6.9550000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2844929261443462E-34</c:v>
+                  <c:v>6.92</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.0223899143439013E-32</c:v>
+                  <c:v>6.8949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.4405904568831148E-30</c:v>
+                  <c:v>6.88</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.3700986326849748E-28</c:v>
+                  <c:v>6.875</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.8406889595608645E-26</c:v>
+                  <c:v>6.8800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0620164485284942E-24</c:v>
+                  <c:v>6.8950000000000005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2947000547505982E-22</c:v>
+                  <c:v>6.92</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.1911032586772075E-21</c:v>
+                  <c:v>6.9550000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.852150477671655E-19</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.3987183547915294E-17</c:v>
+                  <c:v>7.0550000000000006</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.8702626385793054E-15</c:v>
+                  <c:v>7.1200000000000028</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.488101969171893E-13</c:v>
+                  <c:v>7.1950000000001486</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.9634867988808668E-12</c:v>
+                  <c:v>7.2800000000099629</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.4114869989130664E-10</c:v>
+                  <c:v>7.3750000005411485</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.0627394378025113E-8</c:v>
+                  <c:v>7.4800000306273944</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.5531360770378379E-6</c:v>
+                  <c:v>7.5950025531360774</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.9426511992158221E-4</c:v>
+                  <c:v>7.7201942651199209</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.5480125736902193E-3</c:v>
+                  <c:v>7.8635480125736894</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.19358897580562831</c:v>
+                  <c:v>8.1935889758056284</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.2053027687420133</c:v>
+                  <c:v>10.360302768742013</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12.584235098773918</c:v>
+                  <c:v>20.904235098773917</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>36.073208650110324</c:v>
+                  <c:v>44.568208650110321</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>52.87409191502617</c:v>
+                  <c:v>61.55409191502617</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43.35601703482218</c:v>
+                  <c:v>52.23101703482218</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>29.290865287806525</c:v>
+                  <c:v>38.370865287806524</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>28.738922123586828</c:v>
+                  <c:v>38.033922123586834</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>32.203699856259099</c:v>
+                  <c:v>41.723699856259103</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>31.259203702213256</c:v>
+                  <c:v>41.014203702213258</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>28.898445779511878</c:v>
+                  <c:v>38.898445779511874</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>32.041241979668953</c:v>
+                  <c:v>42.296241979668949</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43.540840566570431</c:v>
+                  <c:v>54.060840566570434</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>59.993269758059789</c:v>
+                  <c:v>70.788269758059783</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>74.360089225560372</c:v>
+                  <c:v>85.440089225560371</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>80.022564683239679</c:v>
+                  <c:v>91.397564683239679</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>74.210472818780417</c:v>
+                  <c:v>85.89047281878041</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>59.228934463654554</c:v>
+                  <c:v>71.223934463654558</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>40.675750541954734</c:v>
+                  <c:v>52.995750541954735</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>24.035861446917366</c:v>
+                  <c:v>36.690861446917367</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>12.220954726342887</c:v>
+                  <c:v>25.220954726342889</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.3465274322142404</c:v>
+                  <c:v>18.701527432214238</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.0126102312920322</c:v>
+                  <c:v>15.732610231292036</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.65188166277687409</c:v>
+                  <c:v>14.746881662776874</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.18167662983055588</c:v>
+                  <c:v>14.661676629830559</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.3566289903297917E-2</c:v>
+                  <c:v>14.918566289903298</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.9892467345564324E-3</c:v>
+                  <c:v>15.288989246734554</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.5959424873468646E-3</c:v>
+                  <c:v>15.696595942487347</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.4379926065084919E-4</c:v>
+                  <c:v>16.120243799260649</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.2045624802225964E-5</c:v>
+                  <c:v>16.555032045624806</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.6243181563071519E-6</c:v>
+                  <c:v>17.000003624318158</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.5269970596629361E-7</c:v>
+                  <c:v>17.455000352699706</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.9532831827067695E-8</c:v>
+                  <c:v>17.920000029532833</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.1277779247793678E-9</c:v>
+                  <c:v>18.395000002127777</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.319072654691359E-10</c:v>
+                  <c:v>18.880000000131911</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.0361055753293801E-12</c:v>
+                  <c:v>19.375000000007034</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.2293654105137824E-13</c:v>
+                  <c:v>19.880000000000322</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.275331959124432E-14</c:v>
+                  <c:v>20.395000000000017</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.3336168234130529E-16</c:v>
+                  <c:v>20.919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.2670652662890832E-17</c:v>
+                  <c:v>21.455000000000002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.1876356482950203E-19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6.9001665896938664E-21</c:v>
+                  <c:v>22.555</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.285202875942424E-22</c:v>
+                  <c:v>23.119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.0597049525926532E-24</c:v>
+                  <c:v>23.695000000000007</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.840269496211404E-26</c:v>
+                  <c:v>24.28</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.3700418785807531E-28</c:v>
+                  <c:v>24.875</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.4405847315219286E-30</c:v>
+                  <c:v>25.479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.0223894837074874E-32</c:v>
+                  <c:v>26.094999999999992</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.2844929019940534E-34</c:v>
+                  <c:v>26.720000000000006</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.4857659745868778E-36</c:v>
+                  <c:v>27.355000000000004</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.3144249122083645E-39</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.003457610875762E-41</c:v>
+                  <c:v>28.654999999999994</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.6586679969061633E-43</c:v>
+                  <c:v>29.319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.9129595470976118E-46</c:v>
+                  <c:v>29.995000000000005</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.8137255133878395E-48</c:v>
+                  <c:v>30.680000000000007</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.7869559200038053E-51</c:v>
+                  <c:v>31.375</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.0870975233671503E-53</c:v>
+                  <c:v>32.08</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.1242165888895017E-56</c:v>
+                  <c:v>32.794999999999995</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.5714970659114852E-59</c:v>
+                  <c:v>33.52000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.1668161816555451E-62</c:v>
+                  <c:v>34.255000000000003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.4315690440138026E-65</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1577,13 +1592,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>204787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
@@ -1931,7 +1946,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8339780-D219-477A-B766-499A275603A0}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="A1:B1048576"/>
@@ -1941,75 +1956,102 @@
   <cols>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <f>D1+E1+F1</f>
+        <f>D1+E1+F1+G1</f>
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <f>$I$2*EXP((-4*LN(2)*(A1-$J$2)^2/($K$2^2))/($K$2*SQRT(3.1415926535/4*LN(2))))</f>
+        <v>1.4232774224266777E-291</v>
+      </c>
+      <c r="E1">
+        <f>$I$3*EXP((-4*LN(2)*(A1-$J$3)^2/($K$3^2))/($K$3*SQRT(3.1415926535/4*LN(2))))</f>
+        <v>3.9796768482192797E-146</v>
+      </c>
+      <c r="F1">
+        <f>$I$4*EXP((-4*LN(2)*(A1-$J$4)^2/($K$4^2))/($K$4*SQRT(3.1415926535/4*LN(2))))</f>
         <v>1.475444361612619E-97</v>
       </c>
-      <c r="D1">
-        <f>$H$2*EXP((-4*LN(2)*(A1-$I$2)^2/($J$2^2))/($J$2*SQRT(3.1415926535/4*LN(2))))</f>
-        <v>1.4232774224266777E-291</v>
-      </c>
-      <c r="E1">
-        <f>$H$3*EXP((-4*LN(2)*(A1-$I$3)^2/($J$3^2))/($J$3*SQRT(3.1415926535/4*LN(2))))</f>
-        <v>3.9796768482192797E-146</v>
-      </c>
-      <c r="F1">
-        <f>$H$4*EXP((-4*LN(2)*(A1-$I$4)^2/($J$4^2))/($J$4*SQRT(3.1415926535/4*LN(2))))</f>
-        <v>1.475444361612619E-97</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1">
+        <f>$M$2+A1*$N$2+A1*A1*$O$2</f>
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0.05</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B65" si="0">D2+E2+F2</f>
+        <f t="shared" ref="B2:B65" si="0">D2+E2+F2+G2</f>
+        <v>9.7550000000000008</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D65" si="1">$I$2*EXP((-4*LN(2)*(A2-$J$2)^2/($K$2^2))/($K$2*SQRT(3.1415926535/4*LN(2))))</f>
+        <v>1.9939404484913699E-278</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E65" si="2">$I$3*EXP((-4*LN(2)*(A2-$J$3)^2/($K$3^2))/($K$3*SQRT(3.1415926535/4*LN(2))))</f>
+        <v>4.528823397099282E-140</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F65" si="3">$I$4*EXP((-4*LN(2)*(A2-$J$4)^2/($K$4^2))/($K$4*SQRT(3.1415926535/4*LN(2))))</f>
         <v>5.3286450717125255E-94</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D65" si="1">$H$2*EXP((-4*LN(2)*(A2-$I$2)^2/($J$2^2))/($J$2*SQRT(3.1415926535/4*LN(2))))</f>
-        <v>1.9939404484913699E-278</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E65" si="2">$H$3*EXP((-4*LN(2)*(A2-$I$3)^2/($J$3^2))/($J$3*SQRT(3.1415926535/4*LN(2))))</f>
-        <v>4.528823397099282E-140</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F65" si="3">$H$4*EXP((-4*LN(2)*(A2-$I$4)^2/($J$4^2))/($J$4*SQRT(3.1415926535/4*LN(2))))</f>
-        <v>5.3286450717125255E-94</v>
-      </c>
-      <c r="H2">
+      <c r="G2">
+        <f t="shared" ref="G2:G65" si="4">$M$2+A2*$N$2+A2*A2*$O$2</f>
+        <v>9.7550000000000008</v>
+      </c>
+      <c r="I2">
         <v>50</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2">
+        <v>-5</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.1</v>
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>1.6558918266121149E-90</v>
+        <v>9.52</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
@@ -2023,23 +2065,27 @@
         <f t="shared" si="3"/>
         <v>1.6558918266121149E-90</v>
       </c>
-      <c r="H3">
+      <c r="G3">
+        <f t="shared" si="4"/>
+        <v>9.52</v>
+      </c>
+      <c r="I3">
         <v>30</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2.4</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.15</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>4.4275996343409682E-87</v>
+        <v>9.2949999999999999</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
@@ -2053,23 +2099,27 @@
         <f t="shared" si="3"/>
         <v>4.4275996343409682E-87</v>
       </c>
-      <c r="H4">
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>9.2949999999999999</v>
+      </c>
+      <c r="I4">
         <v>80</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2.75</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0.2</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>1.0186522179262755E-83</v>
+        <v>9.08</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
@@ -2083,14 +2133,18 @@
         <f t="shared" si="3"/>
         <v>1.0186522179262755E-83</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0.25</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>2.0165302401665816E-80</v>
+        <v>8.875</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
@@ -2104,14 +2158,18 @@
         <f t="shared" si="3"/>
         <v>2.0165302401665816E-80</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>8.875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0.3</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>3.4348261052364847E-77</v>
+        <v>8.68</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
@@ -2125,14 +2183,18 @@
         <f t="shared" si="3"/>
         <v>3.4348261052364847E-77</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0.35</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>5.0341480376479566E-74</v>
+        <v>8.4949999999999992</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
@@ -2146,14 +2208,18 @@
         <f t="shared" si="3"/>
         <v>5.0341480376479566E-74</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>8.4949999999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0.4</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>6.3484605032375895E-71</v>
+        <v>8.32</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
@@ -2167,14 +2233,18 @@
         <f t="shared" si="3"/>
         <v>6.3484605032375895E-71</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0.45</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>6.8886175409721131E-68</v>
+        <v>8.1549999999999994</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
@@ -2188,14 +2258,18 @@
         <f t="shared" si="3"/>
         <v>6.8886175409721131E-68</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>8.1549999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.5</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>6.4315690440138026E-65</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
@@ -2209,14 +2283,18 @@
         <f t="shared" si="3"/>
         <v>6.4315690440138026E-65</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0.55000000000000004</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>5.1668161816555451E-62</v>
+        <v>7.8550000000000004</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
@@ -2230,14 +2308,18 @@
         <f t="shared" si="3"/>
         <v>5.1668161816555451E-62</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>7.8550000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>0.6</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>3.5714970659116882E-59</v>
+        <v>7.72</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
@@ -2251,14 +2333,18 @@
         <f t="shared" si="3"/>
         <v>3.5714970659116882E-59</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>0.65</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>2.1242165888893808E-56</v>
+        <v>7.5949999999999998</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
@@ -2272,14 +2358,18 @@
         <f t="shared" si="3"/>
         <v>2.1242165888893808E-56</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>7.5949999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0.7</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>1.0870975233671503E-53</v>
+        <v>7.4799999999999995</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
@@ -2293,14 +2383,18 @@
         <f t="shared" si="3"/>
         <v>1.0870975233671503E-53</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>7.4799999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>0.75</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>4.7869559200038053E-51</v>
+        <v>7.375</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
@@ -2314,14 +2408,18 @@
         <f t="shared" si="3"/>
         <v>4.7869559200038053E-51</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>7.375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>0.8</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>1.8137255133878915E-48</v>
+        <v>7.28</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
@@ -2335,14 +2433,18 @@
         <f t="shared" si="3"/>
         <v>1.8137255133878912E-48</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>0.85</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>5.9129595470977962E-46</v>
+        <v>7.1950000000000003</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
@@ -2356,14 +2458,18 @@
         <f t="shared" si="3"/>
         <v>5.9129595470977798E-46</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>7.1950000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>0.9</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>1.658667996906196E-43</v>
+        <v>7.12</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
@@ -2377,14 +2483,18 @@
         <f t="shared" si="3"/>
         <v>1.6586679969060691E-43</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>0.95</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>4.0034576108830219E-41</v>
+        <v>7.0549999999999997</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
@@ -2398,14 +2508,18 @@
         <f t="shared" si="3"/>
         <v>4.0034576108757044E-41</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>7.0549999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>8.3144249125231752E-39</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
@@ -2419,14 +2533,18 @@
         <f t="shared" si="3"/>
         <v>8.3144249122083645E-39</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1.05</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>1.4857659755967378E-36</v>
+        <v>6.9550000000000001</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
@@ -2440,14 +2558,18 @@
         <f t="shared" si="3"/>
         <v>1.4857659745869411E-36</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>6.9550000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1.1000000000000001</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>2.2844929261443462E-34</v>
+        <v>6.92</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
@@ -2461,14 +2583,18 @@
         <f t="shared" si="3"/>
         <v>2.2844929019941184E-34</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1.1499999999999999</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>3.0223899143439013E-32</v>
+        <v>6.8949999999999996</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
@@ -2482,14 +2608,18 @@
         <f t="shared" si="3"/>
         <v>3.0223894837073588E-32</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>6.8949999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1.2</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>3.4405904568831148E-30</v>
+        <v>6.88</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
@@ -2503,14 +2633,18 @@
         <f t="shared" si="3"/>
         <v>3.4405847315218795E-30</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1.25</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>3.3700986326849748E-28</v>
+        <v>6.875</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
@@ -2524,14 +2658,18 @@
         <f t="shared" si="3"/>
         <v>3.3700418785807531E-28</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>6.875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1.3</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>2.8406889595608645E-26</v>
+        <v>6.8800000000000008</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
@@ -2545,14 +2683,18 @@
         <f t="shared" si="3"/>
         <v>2.8402694962114447E-26</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>6.8800000000000008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1.35</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>2.0620164485284942E-24</v>
+        <v>6.8950000000000005</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
@@ -2566,14 +2708,18 @@
         <f t="shared" si="3"/>
         <v>2.0597049525927263E-24</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>6.8950000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1.4</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>1.2947000547505982E-22</v>
+        <v>6.92</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
@@ -2587,14 +2733,18 @@
         <f t="shared" si="3"/>
         <v>1.2852028759423876E-22</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1.45</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>7.1911032586772075E-21</v>
+        <v>6.9550000000000001</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
@@ -2608,14 +2758,18 @@
         <f t="shared" si="3"/>
         <v>6.900166589693719E-21</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>6.9550000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1.5</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>3.852150477671655E-19</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
@@ -2629,14 +2783,18 @@
         <f t="shared" si="3"/>
         <v>3.1876356482950203E-19</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1.55</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>2.3987183547915294E-17</v>
+        <v>7.0550000000000006</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
@@ -2650,14 +2808,18 @@
         <f t="shared" si="3"/>
         <v>1.2670652662890923E-17</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>7.0550000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1.6</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>1.8702626385793054E-15</v>
+        <v>7.1200000000000028</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
@@ -2671,14 +2833,18 @@
         <f t="shared" si="3"/>
         <v>4.3336168234130529E-16</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>7.120000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1.65</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>1.488101969171893E-13</v>
+        <v>7.1950000000001486</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
@@ -2692,14 +2858,18 @@
         <f t="shared" si="3"/>
         <v>1.275331959124432E-14</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>7.1949999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1.7</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>9.9634867988808668E-12</v>
+        <v>7.2800000000099629</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
@@ -2713,14 +2883,18 @@
         <f t="shared" si="3"/>
         <v>3.229365410513737E-13</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>7.2799999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1.75</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>5.4114869989130664E-10</v>
+        <v>7.3750000005411485</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
@@ -2734,14 +2908,18 @@
         <f t="shared" si="3"/>
         <v>7.0361055753293801E-12</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>7.375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1.8</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>3.0627394378025113E-8</v>
+        <v>7.4800000306273944</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
@@ -2755,14 +2933,18 @@
         <f t="shared" si="3"/>
         <v>1.3190726546913683E-10</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1.85</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>2.5531360770378379E-6</v>
+        <v>7.5950025531360774</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
@@ -2776,14 +2958,18 @@
         <f t="shared" si="3"/>
         <v>2.1277779247793678E-9</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>7.5950000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1.9</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>1.9426511992158221E-4</v>
+        <v>7.7201942651199209</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
@@ -2797,14 +2983,18 @@
         <f t="shared" si="3"/>
         <v>2.9532831827067695E-8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>1.95</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>8.5480125736902193E-3</v>
+        <v>7.8635480125736894</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
@@ -2818,14 +3008,18 @@
         <f t="shared" si="3"/>
         <v>3.5269970596628991E-7</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>7.8549999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>0.19358897580562831</v>
+        <v>8.1935889758056284</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
@@ -2839,14 +3033,18 @@
         <f t="shared" si="3"/>
         <v>3.6243181563071519E-6</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>2.0499999999999998</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>2.2053027687420133</v>
+        <v>10.360302768742013</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
@@ -2860,14 +3058,18 @@
         <f t="shared" si="3"/>
         <v>3.2045624802225964E-5</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>8.1549999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>2.1</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>12.584235098773918</v>
+        <v>20.904235098773917</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
@@ -2881,14 +3083,18 @@
         <f t="shared" si="3"/>
         <v>2.4379926065084919E-4</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>2.15</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>36.073208650110324</v>
+        <v>44.568208650110321</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
@@ -2902,14 +3108,18 @@
         <f t="shared" si="3"/>
         <v>1.5959424873468646E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>8.4949999999999992</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>2.2000000000000002</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>52.87409191502617</v>
+        <v>61.55409191502617</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
@@ -2923,14 +3133,18 @@
         <f t="shared" si="3"/>
         <v>8.9892467345564324E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>8.6800000000000015</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>2.25</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>43.35601703482218</v>
+        <v>52.23101703482218</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
@@ -2944,14 +3158,18 @@
         <f t="shared" si="3"/>
         <v>4.3566289903297903E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>8.875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>2.2999999999999998</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>29.290865287806525</v>
+        <v>38.370865287806524</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
@@ -2965,14 +3183,18 @@
         <f t="shared" si="3"/>
         <v>0.18167662983055444</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>9.0799999999999983</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>2.35</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>28.738922123586828</v>
+        <v>38.033922123586834</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
@@ -2986,14 +3208,18 @@
         <f t="shared" si="3"/>
         <v>0.65188166277673809</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G48">
+        <f t="shared" si="4"/>
+        <v>9.2950000000000017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>2.4</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>32.203699856259099</v>
+        <v>41.723699856259103</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
@@ -3007,14 +3233,18 @@
         <f t="shared" si="3"/>
         <v>2.0126102312824306</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G49">
+        <f t="shared" si="4"/>
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>2.4500000000000002</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>31.259203702213256</v>
+        <v>41.014203702213258</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
@@ -3028,14 +3258,18 @@
         <f t="shared" si="3"/>
         <v>5.3465274317089149</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G50">
+        <f t="shared" si="4"/>
+        <v>9.7550000000000026</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>2.5</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>28.898445779511878</v>
+        <v>38.898445779511874</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
@@ -3049,14 +3283,18 @@
         <f t="shared" si="3"/>
         <v>12.220954706514306</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G51">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>2.5499999999999998</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>32.041241979668953</v>
+        <v>42.296241979668949</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
@@ -3070,14 +3308,18 @@
         <f t="shared" si="3"/>
         <v>24.035860866801897</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>10.254999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>2.6</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>43.540840566570431</v>
+        <v>54.060840566570434</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
@@ -3091,14 +3333,18 @@
         <f t="shared" si="3"/>
         <v>40.675737887611945</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>10.520000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>2.65</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>59.993269758059789</v>
+        <v>70.788269758059783</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
@@ -3112,14 +3358,18 @@
         <f t="shared" si="3"/>
         <v>59.228728653352462</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>10.795</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>2.7</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>74.360089225560372</v>
+        <v>85.440089225560371</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
@@ -3133,14 +3383,18 @@
         <f t="shared" si="3"/>
         <v>74.207977092269616</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G55">
+        <f t="shared" si="4"/>
+        <v>11.080000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>2.75</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>80.022564683239679</v>
+        <v>91.397564683239679</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
@@ -3154,14 +3408,18 @@
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>11.375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>2.8</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>74.210472818780417</v>
+        <v>85.89047281878041</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
@@ -3175,14 +3433,18 @@
         <f t="shared" si="3"/>
         <v>74.207977092269616</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G57">
+        <f t="shared" si="4"/>
+        <v>11.679999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>2.85</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>59.228934463654554</v>
+        <v>71.223934463654558</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
@@ -3196,14 +3458,18 @@
         <f t="shared" si="3"/>
         <v>59.228728653352462</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>11.995000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>2.9</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>40.675750541954734</v>
+        <v>52.995750541954735</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
@@ -3217,14 +3483,18 @@
         <f t="shared" si="3"/>
         <v>40.675737887611945</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G59">
+        <f t="shared" si="4"/>
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>2.95</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>24.035861446917366</v>
+        <v>36.690861446917367</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
@@ -3238,14 +3508,18 @@
         <f t="shared" si="3"/>
         <v>24.035860866801897</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G60">
+        <f t="shared" si="4"/>
+        <v>12.655000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>12.220954726342887</v>
+        <v>25.220954726342889</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
@@ -3259,14 +3533,18 @@
         <f t="shared" si="3"/>
         <v>12.220954706514306</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>3.05</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>5.3465274322142404</v>
+        <v>18.701527432214238</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
@@ -3280,14 +3558,18 @@
         <f t="shared" si="3"/>
         <v>5.3465274317089149</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G62">
+        <f t="shared" si="4"/>
+        <v>13.354999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>3.1</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>2.0126102312920322</v>
+        <v>15.732610231292036</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
@@ -3301,14 +3583,18 @@
         <f t="shared" si="3"/>
         <v>2.0126102312824306</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G63">
+        <f t="shared" si="4"/>
+        <v>13.720000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>3.15</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>0.65188166277687409</v>
+        <v>14.746881662776874</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
@@ -3322,14 +3608,18 @@
         <f t="shared" si="3"/>
         <v>0.65188166277673809</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G64">
+        <f t="shared" si="4"/>
+        <v>14.094999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>3.2</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>0.18167662983055588</v>
+        <v>14.661676629830559</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
@@ -3343,761 +3633,909 @@
         <f t="shared" si="3"/>
         <v>0.18167662983055444</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G65">
+        <f t="shared" si="4"/>
+        <v>14.480000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>3.25</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B101" si="4">D66+E66+F66</f>
-        <v>4.3566289903297917E-2</v>
+        <f t="shared" ref="B66:B101" si="5">D66+E66+F66+G66</f>
+        <v>14.918566289903298</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D101" si="5">$H$2*EXP((-4*LN(2)*(A66-$I$2)^2/($J$2^2))/($J$2*SQRT(3.1415926535/4*LN(2))))</f>
+        <f t="shared" ref="D66:D101" si="6">$I$2*EXP((-4*LN(2)*(A66-$J$2)^2/($K$2^2))/($K$2*SQRT(3.1415926535/4*LN(2))))</f>
         <v>1.1487011395906515E-65</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E101" si="6">$H$3*EXP((-4*LN(2)*(A66-$I$3)^2/($J$3^2))/($J$3*SQRT(3.1415926535/4*LN(2))))</f>
+        <f t="shared" ref="E66:E101" si="7">$I$3*EXP((-4*LN(2)*(A66-$J$3)^2/($K$3^2))/($K$3*SQRT(3.1415926535/4*LN(2))))</f>
         <v>1.1316529434027965E-17</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F101" si="7">$H$4*EXP((-4*LN(2)*(A66-$I$4)^2/($J$4^2))/($J$4*SQRT(3.1415926535/4*LN(2))))</f>
+        <f t="shared" ref="F66:F101" si="8">$I$4*EXP((-4*LN(2)*(A66-$J$4)^2/($K$4^2))/($K$4*SQRT(3.1415926535/4*LN(2))))</f>
         <v>4.3566289903297903E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G66">
+        <f t="shared" ref="G66:G101" si="9">$M$2+A66*$N$2+A66*A66*$O$2</f>
+        <v>14.875</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>3.3</v>
       </c>
       <c r="B67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>15.288989246734554</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="6"/>
+        <v>3.6521608216483636E-72</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="7"/>
+        <v>6.645148281695384E-20</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="8"/>
         <v>8.9892467345564324E-3</v>
       </c>
-      <c r="D67">
-        <f t="shared" si="5"/>
-        <v>3.6521608216483636E-72</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="6"/>
-        <v>6.645148281695384E-20</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="7"/>
-        <v>8.9892467345564324E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G67">
+        <f t="shared" si="9"/>
+        <v>15.279999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>3.35</v>
       </c>
       <c r="B68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>15.696595942487347</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="6"/>
+        <v>5.7899674555502694E-79</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="7"/>
+        <v>2.9093666897847447E-22</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="8"/>
         <v>1.5959424873468646E-3</v>
       </c>
-      <c r="D68">
-        <f t="shared" si="5"/>
-        <v>5.7899674555502694E-79</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="6"/>
-        <v>2.9093666897847447E-22</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="7"/>
-        <v>1.5959424873468646E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G68">
+        <f t="shared" si="9"/>
+        <v>15.695</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>3.4</v>
       </c>
       <c r="B69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>16.120243799260649</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="6"/>
+        <v>4.5770508772455722E-86</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="7"/>
+        <v>9.497178808209504E-25</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="8"/>
         <v>2.4379926065084919E-4</v>
       </c>
-      <c r="D69">
-        <f t="shared" si="5"/>
-        <v>4.5770508772455722E-86</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="6"/>
-        <v>9.497178808209504E-25</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="7"/>
-        <v>2.4379926065084919E-4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G69">
+        <f t="shared" si="9"/>
+        <v>16.119999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>3.45</v>
       </c>
       <c r="B70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>16.555032045624806</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="6"/>
+        <v>1.8041753515479281E-93</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="7"/>
+        <v>2.3114959357677631E-27</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="8"/>
         <v>3.2045624802225964E-5</v>
       </c>
-      <c r="D70">
-        <f t="shared" si="5"/>
-        <v>1.8041753515479281E-93</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="6"/>
-        <v>2.3114959357677631E-27</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="7"/>
-        <v>3.2045624802225964E-5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G70">
+        <f t="shared" si="9"/>
+        <v>16.555000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>3.5</v>
       </c>
       <c r="B71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>17.000003624318158</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="6"/>
+        <v>3.5461339670379477E-101</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="7"/>
+        <v>4.194633494196081E-30</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="8"/>
         <v>3.6243181563071519E-6</v>
       </c>
-      <c r="D71">
-        <f t="shared" si="5"/>
-        <v>3.5461339670379477E-101</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="6"/>
-        <v>4.194633494196081E-30</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="7"/>
-        <v>3.6243181563071519E-6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G71">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>3.55</v>
       </c>
       <c r="B72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>17.455000352699706</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="6"/>
+        <v>3.4754810088427581E-109</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="7"/>
+        <v>5.6754104221602847E-33</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="8"/>
         <v>3.5269970596629361E-7</v>
       </c>
-      <c r="D72">
-        <f t="shared" si="5"/>
-        <v>3.4754810088427581E-109</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="6"/>
-        <v>5.6754104221602847E-33</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="7"/>
-        <v>3.5269970596629361E-7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G72">
+        <f t="shared" si="9"/>
+        <v>17.454999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>3.6</v>
       </c>
       <c r="B73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>17.920000029532833</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="6"/>
+        <v>1.6984708157133928E-117</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="7"/>
+        <v>5.7253612350261239E-36</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="8"/>
         <v>2.9532831827067695E-8</v>
       </c>
-      <c r="D73">
-        <f t="shared" si="5"/>
-        <v>1.6984708157133928E-117</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="6"/>
-        <v>5.7253612350261239E-36</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="7"/>
-        <v>2.9532831827067695E-8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G73">
+        <f t="shared" si="9"/>
+        <v>17.920000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>3.65</v>
       </c>
       <c r="B74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>18.395000002127777</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="6"/>
+        <v>4.1388972606611183E-126</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="7"/>
+        <v>4.3063654233703598E-39</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="8"/>
         <v>2.1277779247793678E-9</v>
       </c>
-      <c r="D74">
-        <f t="shared" si="5"/>
-        <v>4.1388972606611183E-126</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="6"/>
-        <v>4.3063654233703598E-39</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="7"/>
-        <v>2.1277779247793678E-9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G74">
+        <f t="shared" si="9"/>
+        <v>18.395</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>3.7</v>
       </c>
       <c r="B75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>18.880000000131911</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="6"/>
+        <v>5.0291500243926013E-135</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="7"/>
+        <v>2.4150227886241572E-42</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="8"/>
         <v>1.319072654691359E-10</v>
       </c>
-      <c r="D75">
-        <f t="shared" si="5"/>
-        <v>5.0291500243926013E-135</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="6"/>
-        <v>2.4150227886241572E-42</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="7"/>
-        <v>1.319072654691359E-10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G75">
+        <f t="shared" si="9"/>
+        <v>18.880000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>3.75</v>
       </c>
       <c r="B76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>19.375000000007034</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="6"/>
+        <v>3.0471085399829124E-144</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="7"/>
+        <v>1.0097967146615752E-45</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="8"/>
         <v>7.0361055753293801E-12</v>
       </c>
-      <c r="D76">
-        <f t="shared" si="5"/>
-        <v>3.0471085399829124E-144</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="6"/>
-        <v>1.0097967146615752E-45</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="7"/>
-        <v>7.0361055753293801E-12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G76">
+        <f t="shared" si="9"/>
+        <v>19.375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>3.8</v>
       </c>
       <c r="B77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>19.880000000000322</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="6"/>
+        <v>9.2058659235072065E-154</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="7"/>
+        <v>3.1481037769891949E-49</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="8"/>
         <v>3.2293654105137824E-13</v>
       </c>
-      <c r="D77">
-        <f t="shared" si="5"/>
-        <v>9.2058659235072065E-154</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="6"/>
-        <v>3.1481037769891949E-49</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="7"/>
-        <v>3.2293654105137824E-13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G77">
+        <f t="shared" si="9"/>
+        <v>19.88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>3.85</v>
       </c>
       <c r="B78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>20.395000000000017</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="6"/>
+        <v>1.3868348752520728E-163</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="7"/>
+        <v>7.3175634054785613E-53</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="8"/>
         <v>1.275331959124432E-14</v>
       </c>
-      <c r="D78">
-        <f t="shared" si="5"/>
-        <v>1.3868348752520728E-163</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="6"/>
-        <v>7.3175634054785613E-53</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="7"/>
-        <v>1.275331959124432E-14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G78">
+        <f t="shared" si="9"/>
+        <v>20.395000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>3.9</v>
       </c>
       <c r="B79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>20.919999999999998</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="6"/>
+        <v>1.041761375699288E-173</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="7"/>
+        <v>1.2681958124340008E-56</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="8"/>
         <v>4.3336168234130529E-16</v>
       </c>
-      <c r="D79">
-        <f t="shared" si="5"/>
-        <v>1.041761375699288E-173</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="6"/>
-        <v>1.2681958124340008E-56</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="7"/>
-        <v>4.3336168234130529E-16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G79">
+        <f t="shared" si="9"/>
+        <v>20.919999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>3.95</v>
       </c>
       <c r="B80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>21.455000000000002</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="6"/>
+        <v>3.9020707231425425E-184</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="7"/>
+        <v>1.6387341426282334E-60</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="8"/>
         <v>1.2670652662890832E-17</v>
       </c>
-      <c r="D80">
-        <f t="shared" si="5"/>
-        <v>3.9020707231425425E-184</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="6"/>
-        <v>1.6387341426282334E-60</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="7"/>
-        <v>1.2670652662890832E-17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G80">
+        <f t="shared" si="9"/>
+        <v>21.455000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="6"/>
+        <v>7.2879504201418543E-195</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="7"/>
+        <v>1.5788215892622766E-64</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="8"/>
         <v>3.1876356482950203E-19</v>
       </c>
-      <c r="D81">
-        <f t="shared" si="5"/>
-        <v>7.2879504201418543E-195</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="6"/>
-        <v>1.5788215892622766E-64</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="7"/>
-        <v>3.1876356482950203E-19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G81">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>4.05</v>
       </c>
       <c r="B82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>22.555</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="6"/>
+        <v>6.7873316457932984E-206</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="7"/>
+        <v>1.1341225284354785E-68</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="8"/>
         <v>6.9001665896938664E-21</v>
       </c>
-      <c r="D82">
-        <f t="shared" si="5"/>
-        <v>6.7873316457932984E-206</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="6"/>
-        <v>1.1341225284354785E-68</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="7"/>
-        <v>6.9001665896938664E-21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G82">
+        <f t="shared" si="9"/>
+        <v>22.555</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>4.0999999999999996</v>
       </c>
       <c r="B83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>23.119999999999997</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="6"/>
+        <v>3.1519267738160487E-217</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="7"/>
+        <v>6.0742024865699566E-73</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="8"/>
         <v>1.285202875942424E-22</v>
       </c>
-      <c r="D83">
-        <f t="shared" si="5"/>
-        <v>3.1519267738160487E-217</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="6"/>
-        <v>6.0742024865699566E-73</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="7"/>
-        <v>1.285202875942424E-22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G83">
+        <f t="shared" si="9"/>
+        <v>23.119999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>4.1500000000000004</v>
       </c>
       <c r="B84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>23.695000000000007</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="6"/>
+        <v>7.2985494726317257E-229</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="7"/>
+        <v>2.4256096952949469E-77</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="8"/>
         <v>2.0597049525926532E-24</v>
       </c>
-      <c r="D84">
-        <f t="shared" si="5"/>
-        <v>7.2985494726317257E-229</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="6"/>
-        <v>2.4256096952949469E-77</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="7"/>
-        <v>2.0597049525926532E-24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G84">
+        <f t="shared" si="9"/>
+        <v>23.695000000000007</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>4.2</v>
       </c>
       <c r="B85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>24.28</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="6"/>
+        <v>8.4271433401970785E-241</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="7"/>
+        <v>7.2219577147398796E-82</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="8"/>
         <v>2.840269496211404E-26</v>
       </c>
-      <c r="D85">
-        <f t="shared" si="5"/>
-        <v>8.4271433401970785E-241</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="6"/>
-        <v>7.2219577147398796E-82</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="7"/>
-        <v>2.840269496211404E-26</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G85">
+        <f t="shared" si="9"/>
+        <v>24.28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>4.25</v>
       </c>
       <c r="B86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>24.875</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="6"/>
+        <v>4.8518525486764405E-253</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="7"/>
+        <v>1.6032133828040788E-86</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="8"/>
         <v>3.3700418785807531E-28</v>
       </c>
-      <c r="D86">
-        <f t="shared" si="5"/>
-        <v>4.8518525486764405E-253</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="6"/>
-        <v>1.6032133828040788E-86</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="7"/>
-        <v>3.3700418785807531E-28</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G86">
+        <f t="shared" si="9"/>
+        <v>24.875</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>4.3</v>
       </c>
       <c r="B87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>25.479999999999997</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="6"/>
+        <v>1.3928944074178713E-265</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="7"/>
+        <v>2.6535671641101612E-91</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="8"/>
         <v>3.4405847315219286E-30</v>
       </c>
-      <c r="D87">
-        <f t="shared" si="5"/>
-        <v>1.3928944074178713E-265</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="6"/>
-        <v>2.6535671641101612E-91</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="7"/>
-        <v>3.4405847315219286E-30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G87">
+        <f t="shared" si="9"/>
+        <v>25.479999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>4.3499999999999996</v>
       </c>
       <c r="B88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>26.094999999999992</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="6"/>
+        <v>1.9939404484922768E-278</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="7"/>
+        <v>3.2746976359882884E-96</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="8"/>
         <v>3.0223894837074874E-32</v>
       </c>
-      <c r="D88">
-        <f t="shared" si="5"/>
-        <v>1.9939404484922768E-278</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="6"/>
-        <v>3.2746976359882884E-96</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="7"/>
-        <v>3.0223894837074874E-32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G88">
+        <f t="shared" si="9"/>
+        <v>26.094999999999992</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>4.4000000000000004</v>
       </c>
       <c r="B89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>26.720000000000006</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="6"/>
+        <v>1.4232774224266777E-291</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="7"/>
+        <v>3.0131079747279784E-101</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="8"/>
         <v>2.2844929019940534E-34</v>
       </c>
-      <c r="D89">
-        <f t="shared" si="5"/>
-        <v>1.4232774224266777E-291</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="6"/>
-        <v>3.0131079747279784E-101</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="7"/>
-        <v>2.2844929019940534E-34</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G89">
+        <f t="shared" si="9"/>
+        <v>26.720000000000006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>4.45</v>
       </c>
       <c r="B90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>27.355000000000004</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="6"/>
+        <v>5.0658266557171155E-305</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="7"/>
+        <v>2.0670955417379496E-106</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="8"/>
         <v>1.4857659745868778E-36</v>
       </c>
-      <c r="D90">
-        <f t="shared" si="5"/>
-        <v>5.0658266557171155E-305</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="6"/>
-        <v>2.0670955417379496E-106</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="7"/>
-        <v>1.4857659745868778E-36</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G90">
+        <f t="shared" si="9"/>
+        <v>27.355000000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>4.5</v>
       </c>
       <c r="B91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="7"/>
+        <v>1.0573256609328265E-111</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="8"/>
         <v>8.3144249122083645E-39</v>
       </c>
-      <c r="D91">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="6"/>
-        <v>1.0573256609328265E-111</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="7"/>
-        <v>8.3144249122083645E-39</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G91">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>4.55</v>
       </c>
       <c r="B92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>28.654999999999994</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="7"/>
+        <v>4.0323605898057795E-117</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="8"/>
         <v>4.003457610875762E-41</v>
       </c>
-      <c r="D92">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="6"/>
-        <v>4.0323605898057795E-117</v>
-      </c>
-      <c r="F92">
-        <f t="shared" si="7"/>
-        <v>4.003457610875762E-41</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G92">
+        <f t="shared" si="9"/>
+        <v>28.654999999999994</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>4.5999999999999996</v>
       </c>
       <c r="B93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>29.319999999999993</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="7"/>
+        <v>1.1466010029749241E-122</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="8"/>
         <v>1.6586679969061633E-43</v>
       </c>
-      <c r="D93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="6"/>
-        <v>1.1466010029749241E-122</v>
-      </c>
-      <c r="F93">
-        <f t="shared" si="7"/>
-        <v>1.6586679969061633E-43</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G93">
+        <f t="shared" si="9"/>
+        <v>29.319999999999993</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>4.6500000000000004</v>
       </c>
       <c r="B94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>29.995000000000005</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="7"/>
+        <v>2.4309030579229802E-128</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="8"/>
         <v>5.9129595470976118E-46</v>
       </c>
-      <c r="D94">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="6"/>
-        <v>2.4309030579229802E-128</v>
-      </c>
-      <c r="F94">
-        <f t="shared" si="7"/>
-        <v>5.9129595470976118E-46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G94">
+        <f t="shared" si="9"/>
+        <v>29.995000000000005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>4.7</v>
       </c>
       <c r="B95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>30.680000000000007</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="7"/>
+        <v>3.8426013354487236E-134</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="8"/>
         <v>1.8137255133878395E-48</v>
       </c>
-      <c r="D95">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="6"/>
-        <v>3.8426013354487236E-134</v>
-      </c>
-      <c r="F95">
-        <f t="shared" si="7"/>
-        <v>1.8137255133878395E-48</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G95">
+        <f t="shared" si="9"/>
+        <v>30.680000000000007</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>4.75</v>
       </c>
       <c r="B96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>31.375</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="7"/>
+        <v>4.528823397099282E-140</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="8"/>
         <v>4.7869559200038053E-51</v>
       </c>
-      <c r="D96">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="6"/>
-        <v>4.528823397099282E-140</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="7"/>
-        <v>4.7869559200038053E-51</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G96">
+        <f t="shared" si="9"/>
+        <v>31.375</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>4.8</v>
       </c>
       <c r="B97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>32.08</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="7"/>
+        <v>3.9796768482192797E-146</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="8"/>
         <v>1.0870975233671503E-53</v>
       </c>
-      <c r="D97">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="6"/>
-        <v>3.9796768482192797E-146</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="7"/>
-        <v>1.0870975233671503E-53</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G97">
+        <f t="shared" si="9"/>
+        <v>32.08</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>4.8499999999999996</v>
       </c>
       <c r="B98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>32.794999999999995</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="7"/>
+        <v>2.6074296418947024E-152</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="8"/>
         <v>2.1242165888895017E-56</v>
       </c>
-      <c r="D98">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="6"/>
-        <v>2.6074296418947024E-152</v>
-      </c>
-      <c r="F98">
-        <f t="shared" si="7"/>
-        <v>2.1242165888895017E-56</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G98">
+        <f t="shared" si="9"/>
+        <v>32.794999999999995</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>4.9000000000000004</v>
       </c>
       <c r="B99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>33.52000000000001</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="7"/>
+        <v>1.2737369719871716E-158</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="8"/>
         <v>3.5714970659114852E-59</v>
       </c>
-      <c r="D99">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="6"/>
-        <v>1.2737369719871716E-158</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="7"/>
-        <v>3.5714970659114852E-59</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G99">
+        <f t="shared" si="9"/>
+        <v>33.52000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>4.95</v>
       </c>
       <c r="B100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>34.255000000000003</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="7"/>
+        <v>4.6392660446465608E-165</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="8"/>
         <v>5.1668161816555451E-62</v>
       </c>
-      <c r="D100">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="6"/>
-        <v>4.6392660446465608E-165</v>
-      </c>
-      <c r="F100">
-        <f t="shared" si="7"/>
-        <v>5.1668161816555451E-62</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G100">
+        <f t="shared" si="9"/>
+        <v>34.255000000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>5</v>
       </c>
       <c r="B101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="7"/>
+        <v>1.25985675421432E-171</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="8"/>
         <v>6.4315690440138026E-65</v>
       </c>
-      <c r="D101">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="6"/>
-        <v>1.25985675421432E-171</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="7"/>
-        <v>6.4315690440138026E-65</v>
+      <c r="G101">
+        <f t="shared" si="9"/>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4111,22 +4549,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DBC8AE-0810-43CE-AD24-D68E2E176239}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="N88" sqref="N88"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="N90" sqref="N90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.475444361612619E-97</v>
+        <f ca="1">D1+E1+F1+G1</f>
+        <v>10</v>
       </c>
       <c r="C1" s="1">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D1">
         <f ca="1">B1+C1</f>
@@ -4148,19 +4590,20 @@
         <v>0.05</v>
       </c>
       <c r="B2">
-        <v>5.3286450717125255E-94</v>
+        <f t="shared" ref="B2:B65" ca="1" si="0">D2+E2+F2+G2</f>
+        <v>9.7550000000000008</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C65" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>5</v>
+        <f t="shared" ref="C2:C65" ca="1" si="1">RANDBETWEEN(1,10)</f>
+        <v>10</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D65" ca="1" si="1">B2+C2</f>
-        <v>5</v>
+        <f t="shared" ref="D2:D65" ca="1" si="2">B2+C2</f>
+        <v>4</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E65" ca="1" si="2">SQRT(D2)</f>
-        <v>2.2360679774997898</v>
+        <f t="shared" ref="E2:E65" ca="1" si="3">SQRT(D2)</f>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -4174,19 +4617,20 @@
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>1.6558918266121149E-90</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.52</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.4142135623730951</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.2360679774997898</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -4200,19 +4644,20 @@
         <v>0.15</v>
       </c>
       <c r="B4">
-        <v>4.4275996343409682E-87</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.2949999999999999</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.4494897427831779</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.7320508075688772</v>
       </c>
       <c r="H4">
         <v>8</v>
@@ -4226,19 +4671,20 @@
         <v>0.2</v>
       </c>
       <c r="B5">
-        <v>1.0186522179262755E-83</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.08</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.4142135623730951</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.6457513110645907</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -4252,19 +4698,20 @@
         <v>0.25</v>
       </c>
       <c r="B6">
-        <v>2.0165302401665816E-80</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.875</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.8284271247461903</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4142135623730951</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -4278,19 +4725,20 @@
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>3.4348261052364847E-77</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.68</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.4494897427831779</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.6457513110645907</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -4304,19 +4752,20 @@
         <v>0.35</v>
       </c>
       <c r="B8">
-        <v>5.0341480376479566E-74</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.4949999999999992</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.4494897427831779</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.1622776601683795</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -4330,19 +4779,20 @@
         <v>0.4</v>
       </c>
       <c r="B9">
-        <v>6.3484605032375895E-71</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.32</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="D9">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4494897427831779</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -4356,18 +4806,19 @@
         <v>0.45</v>
       </c>
       <c r="B10">
-        <v>6.8886175409721131E-68</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1549999999999994</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
       <c r="E10">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1.7320508075688772</v>
       </c>
       <c r="H10">
@@ -4382,19 +4833,20 @@
         <v>0.5</v>
       </c>
       <c r="B11">
-        <v>6.4315690440138026E-65</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.1622776601683795</v>
       </c>
       <c r="H11">
         <v>6</v>
@@ -4408,19 +4860,20 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B12">
-        <v>5.1668161816555451E-62</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8550000000000004</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.8284271247461903</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -4434,19 +4887,20 @@
         <v>0.6</v>
       </c>
       <c r="B13">
-        <v>3.5714970659116882E-59</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.72</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.4142135623730951</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4494897427831779</v>
       </c>
       <c r="H13">
         <v>8</v>
@@ -4460,19 +4914,20 @@
         <v>0.65</v>
       </c>
       <c r="B14">
-        <v>2.1242165888893808E-56</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.5949999999999998</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.6457513110645907</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>9</v>
@@ -4486,19 +4941,20 @@
         <v>0.7</v>
       </c>
       <c r="B15">
-        <v>1.0870975233671503E-53</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.4799999999999995</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.2360679774997898</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.7320508075688772</v>
       </c>
       <c r="H15">
         <v>9</v>
@@ -4512,19 +4968,20 @@
         <v>0.75</v>
       </c>
       <c r="B16">
-        <v>4.7869559200038053E-51</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.375</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.1622776601683795</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.8284271247461903</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -4538,19 +4995,20 @@
         <v>0.8</v>
       </c>
       <c r="B17">
-        <v>1.8137255133878915E-48</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.28</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.7320508075688772</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.8284271247461903</v>
       </c>
       <c r="H17">
         <v>7</v>
@@ -4564,19 +5022,20 @@
         <v>0.85</v>
       </c>
       <c r="B18">
-        <v>5.9129595470977962E-46</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1950000000000003</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -4590,19 +5049,20 @@
         <v>0.9</v>
       </c>
       <c r="B19">
-        <v>1.658667996906196E-43</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.12</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D19">
         <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
       <c r="E19">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.6457513110645907</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.2360679774997898</v>
       </c>
       <c r="H19">
         <v>8</v>
@@ -4616,19 +5076,20 @@
         <v>0.95</v>
       </c>
       <c r="B20">
-        <v>4.0034576108830219E-41</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0549999999999997</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.7320508075688772</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.1622776601683795</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -4642,19 +5103,20 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>8.3144249125231752E-39</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="D21">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -4668,19 +5130,20 @@
         <v>1.05</v>
       </c>
       <c r="B22">
-        <v>1.4857659755967378E-36</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9550000000000001</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.7320508075688772</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4142135623730951</v>
       </c>
       <c r="H22">
         <v>9</v>
@@ -4694,19 +5157,20 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>2.2844929261443462E-34</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.92</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D23">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
       <c r="E23">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.2360679774997898</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>10</v>
@@ -4720,19 +5184,20 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="B24">
-        <v>3.0223899143439013E-32</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8949999999999996</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="D24">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.7320508075688772</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4142135623730951</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -4746,19 +5211,20 @@
         <v>1.2</v>
       </c>
       <c r="B25">
-        <v>3.4405904568831148E-30</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.88</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="D25">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.4494897427831779</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -4772,19 +5238,20 @@
         <v>1.25</v>
       </c>
       <c r="B26">
-        <v>3.3700986326849748E-28</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.875</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="D26">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.6457513110645907</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -4798,19 +5265,20 @@
         <v>1.3</v>
       </c>
       <c r="B27">
-        <v>2.8406889595608645E-26</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8800000000000008</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="D27">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.2360679774997898</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.1622776601683795</v>
       </c>
       <c r="H27">
         <v>10</v>
@@ -4824,19 +5292,20 @@
         <v>1.35</v>
       </c>
       <c r="B28">
-        <v>2.0620164485284942E-24</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8950000000000005</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="D28">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.6457513110645907</v>
       </c>
       <c r="H28">
         <v>8</v>
@@ -4850,19 +5319,20 @@
         <v>1.4</v>
       </c>
       <c r="B29">
-        <v>1.2947000547505982E-22</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.92</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="D29">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.4142135623730951</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.2360679774997898</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -4876,19 +5346,20 @@
         <v>1.45</v>
       </c>
       <c r="B30">
-        <v>7.1911032586772075E-21</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9550000000000001</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="D30">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.7320508075688772</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.6457513110645907</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -4902,19 +5373,20 @@
         <v>1.5</v>
       </c>
       <c r="B31">
-        <v>3.852150477671655E-19</v>
-      </c>
-      <c r="C31" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
+      <c r="C31" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
       <c r="D31">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.6457513110645907</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.1622776601683795</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -4928,19 +5400,20 @@
         <v>1.55</v>
       </c>
       <c r="B32">
-        <v>2.3987183547915294E-17</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0550000000000006</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="D32">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.8284271247461903</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4494897427831779</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -4954,18 +5427,19 @@
         <v>1.6</v>
       </c>
       <c r="B33">
-        <v>1.8702626385793054E-15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1200000000000028</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="D33">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>7.0000000000000018</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2.6457513110645907</v>
       </c>
       <c r="H33">
@@ -4980,19 +5454,20 @@
         <v>1.65</v>
       </c>
       <c r="B34">
-        <v>1.488101969171893E-13</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1950000000001486</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="D34">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.0000000000001492</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.0000000000001492</v>
       </c>
       <c r="E34">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.6457513110646187</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4494897427832085</v>
       </c>
       <c r="H34">
         <v>10.000000000000149</v>
@@ -5006,19 +5481,20 @@
         <v>1.7</v>
       </c>
       <c r="B35">
-        <v>9.9634867988808668E-12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.2800000000099629</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
       <c r="D35">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.0000000000099636</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0000000000099636</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.8284271247479515</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.7320508075717536</v>
       </c>
       <c r="H35">
         <v>7.0000000000099636</v>
@@ -5032,19 +5508,20 @@
         <v>1.75</v>
       </c>
       <c r="B36">
-        <v>5.4114869989130664E-10</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.3750000005411485</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="D36">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.000000000541149</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.0000000005411489</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.1622776602539426</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4142135625644201</v>
       </c>
       <c r="H36">
         <v>8.0000000005411493</v>
@@ -5058,19 +5535,20 @@
         <v>1.8</v>
       </c>
       <c r="B37">
-        <v>3.0627394378025113E-8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.4800000306273944</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
       <c r="D37">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.000000030627394</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10.000000030627394</v>
       </c>
       <c r="E37">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.6457513168526239</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.1622776650109956</v>
       </c>
       <c r="H37">
         <v>1.0000000306273944</v>
@@ -5084,19 +5562,20 @@
         <v>1.85</v>
       </c>
       <c r="B38">
-        <v>2.5531360770378379E-6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.5950025531360774</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="D38">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.0000025531360777</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.000002553136077</v>
       </c>
       <c r="E38">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.0000004255226496</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0000012765672237</v>
       </c>
       <c r="H38">
         <v>5.0000025531360768</v>
@@ -5110,19 +5589,20 @@
         <v>1.9</v>
       </c>
       <c r="B39">
-        <v>1.9426511992158221E-4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.7201942651199209</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="D39">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.0001942651199216</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.0001942651199212</v>
       </c>
       <c r="E39">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.4142822437971572</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.0000485656903235</v>
       </c>
       <c r="H39">
         <v>10.000194265119921</v>
@@ -5136,19 +5616,20 @@
         <v>1.95</v>
       </c>
       <c r="B40">
-        <v>8.5480125736902193E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8635480125736894</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="D40">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.008548012573691</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.0085480125736899</v>
       </c>
       <c r="E40">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.1636289309231085</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.6473662407331724</v>
       </c>
       <c r="H40">
         <v>10.008548012573691</v>
@@ -5162,19 +5643,20 @@
         <v>2</v>
       </c>
       <c r="B41">
-        <v>0.19358897580562831</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1935889758056284</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="D41">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.193588975805628</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.1935889758056284</v>
       </c>
       <c r="E41">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.1927400420024221</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.0320931674019564</v>
       </c>
       <c r="H41">
         <v>9.1935889758056284</v>
@@ -5188,19 +5670,20 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="B42">
-        <v>2.2053027687420133</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10.360302768742013</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="D42">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.2053027687420137</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.2053027687420133</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.4910445136010746</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.7903359373989043</v>
       </c>
       <c r="H42">
         <v>6.2053027687420137</v>
@@ -5214,19 +5697,20 @@
         <v>2.1</v>
       </c>
       <c r="B43">
-        <v>12.584235098773918</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20.904235098773917</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="D43">
-        <f t="shared" ca="1" si="1"/>
-        <v>22.584235098773917</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>14.584235098773918</v>
       </c>
       <c r="E43">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.752287354398292</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.8189311461158759</v>
       </c>
       <c r="H43">
         <v>17.584235098773917</v>
@@ -5240,19 +5724,20 @@
         <v>2.15</v>
       </c>
       <c r="B44">
-        <v>36.073208650110324</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44.568208650110321</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="D44">
-        <f t="shared" ca="1" si="1"/>
-        <v>37.073208650110324</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>41.073208650110324</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.0887772705289791</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6.4088383229810315</v>
       </c>
       <c r="H44">
         <v>39.073208650110324</v>
@@ -5266,19 +5751,20 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B45">
-        <v>52.87409191502617</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>61.55409191502617</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="D45">
-        <f t="shared" ca="1" si="1"/>
-        <v>53.87409191502617</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>57.87409191502617</v>
       </c>
       <c r="E45">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.3398972686970332</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>7.6075023440697125</v>
       </c>
       <c r="H45">
         <v>59.87409191502617</v>
@@ -5292,19 +5778,20 @@
         <v>2.25</v>
       </c>
       <c r="B46">
-        <v>43.35601703482218</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52.23101703482218</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="D46">
-        <f t="shared" ca="1" si="1"/>
-        <v>49.35601703482218</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>53.35601703482218</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.0253837642382342</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>7.3045203151762248</v>
       </c>
       <c r="H46">
         <v>50.35601703482218</v>
@@ -5318,19 +5805,20 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B47">
-        <v>29.290865287806525</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>38.370865287806524</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="D47">
-        <f t="shared" ca="1" si="1"/>
-        <v>31.290865287806525</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.290865287806525</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.5938238520538457</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5.6825051947012355</v>
       </c>
       <c r="H47">
         <v>30.290865287806525</v>
@@ -5344,19 +5832,20 @@
         <v>2.35</v>
       </c>
       <c r="B48">
-        <v>28.738922123586828</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>38.033922123586834</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="D48">
-        <f t="shared" ca="1" si="1"/>
-        <v>36.738922123586832</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>38.738922123586832</v>
       </c>
       <c r="E48">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.0612640697784181</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6.2240599389455458</v>
       </c>
       <c r="H48">
         <v>38.738922123586832</v>
@@ -5370,19 +5859,20 @@
         <v>2.4</v>
       </c>
       <c r="B49">
-        <v>32.203699856259099</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41.723699856259103</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="D49">
-        <f t="shared" ca="1" si="1"/>
-        <v>36.203699856259099</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>38.203699856259099</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.0169510431994624</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6.1809141602403042</v>
       </c>
       <c r="H49">
         <v>35.203699856259099</v>
@@ -5396,19 +5886,20 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="B50">
-        <v>31.259203702213256</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41.014203702213258</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="D50">
-        <f t="shared" ca="1" si="1"/>
-        <v>34.259203702213256</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>36.259203702213256</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.8531362278878536</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6.0215615667543627</v>
       </c>
       <c r="H50">
         <v>34.259203702213256</v>
@@ -5422,19 +5913,20 @@
         <v>2.5</v>
       </c>
       <c r="B51">
-        <v>28.898445779511878</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>38.898445779511874</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="D51">
-        <f t="shared" ca="1" si="1"/>
-        <v>31.898445779511878</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>33.898445779511874</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.6478709067676007</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5.8222371799431079</v>
       </c>
       <c r="H51">
         <v>36.898445779511874</v>
@@ -5448,19 +5940,20 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="B52">
-        <v>32.041241979668953</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42.296241979668949</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
       <c r="D52">
-        <f t="shared" ca="1" si="1"/>
-        <v>41.041241979668953</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>35.041241979668953</v>
       </c>
       <c r="E52">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.406343885530104</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5.9195643403606111</v>
       </c>
       <c r="H52">
         <v>35.041241979668953</v>
@@ -5474,19 +5967,20 @@
         <v>2.6</v>
       </c>
       <c r="B53">
-        <v>43.540840566570431</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>54.060840566570434</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="D53">
-        <f t="shared" ca="1" si="1"/>
-        <v>52.540840566570431</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50.540840566570431</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.2485060920558269</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>7.1092081532735012</v>
       </c>
       <c r="H53">
         <v>47.540840566570431</v>
@@ -5500,18 +5994,19 @@
         <v>2.65</v>
       </c>
       <c r="B54">
-        <v>59.993269758059789</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>70.788269758059783</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="D54">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>69.993269758059796</v>
       </c>
       <c r="E54">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>8.3661980467868311</v>
       </c>
       <c r="H54">
@@ -5526,19 +6021,20 @@
         <v>2.7</v>
       </c>
       <c r="B55">
-        <v>74.360089225560372</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>85.440089225560371</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="D55">
-        <f t="shared" ca="1" si="1"/>
-        <v>83.360089225560372</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>78.360089225560372</v>
       </c>
       <c r="E55">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1301746547128211</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8.8521234303166132</v>
       </c>
       <c r="H55">
         <v>82.360089225560372</v>
@@ -5552,19 +6048,20 @@
         <v>2.75</v>
       </c>
       <c r="B56">
-        <v>80.022564683239679</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>91.397564683239679</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="D56">
-        <f t="shared" ca="1" si="1"/>
-        <v>84.022564683239679</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>83.022564683239679</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1663823116450729</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.111671892865747</v>
       </c>
       <c r="H56">
         <v>85.022564683239679</v>
@@ -5578,19 +6075,20 @@
         <v>2.8</v>
       </c>
       <c r="B57">
-        <v>74.210472818780417</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>85.89047281878041</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="D57">
-        <f t="shared" ca="1" si="1"/>
-        <v>80.210472818780417</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>76.210472818780417</v>
       </c>
       <c r="E57">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.9560299697343808</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8.7298609850776216</v>
       </c>
       <c r="H57">
         <v>81.210472818780417</v>
@@ -5604,19 +6102,20 @@
         <v>2.85</v>
       </c>
       <c r="B58">
-        <v>59.228934463654554</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>71.223934463654558</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="D58">
-        <f t="shared" ca="1" si="1"/>
-        <v>67.228934463654554</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>69.228934463654554</v>
       </c>
       <c r="E58">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.1993252444121616</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8.3203926868660805</v>
       </c>
       <c r="H58">
         <v>63.228934463654554</v>
@@ -5630,19 +6129,20 @@
         <v>2.9</v>
       </c>
       <c r="B59">
-        <v>40.675750541954734</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52.995750541954735</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="D59">
-        <f t="shared" ca="1" si="1"/>
-        <v>46.675750541954734</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50.675750541954734</v>
       </c>
       <c r="E59">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.8319653498795452</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>7.1186902265764269</v>
       </c>
       <c r="H59">
         <v>44.675750541954734</v>
@@ -5656,19 +6156,20 @@
         <v>2.95</v>
       </c>
       <c r="B60">
-        <v>24.035861446917366</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36.690861446917367</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="D60">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.035861446917366</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>25.035861446917366</v>
       </c>
       <c r="E60">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.3884934301637006</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5.0035848595699228</v>
       </c>
       <c r="H60">
         <v>25.035861446917366</v>
@@ -5682,19 +6183,20 @@
         <v>3</v>
       </c>
       <c r="B61">
-        <v>12.220954726342887</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>25.220954726342889</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="D61">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.220954726342887</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>13.220954726342887</v>
       </c>
       <c r="E61">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.7710681147843097</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.6360630806330749</v>
       </c>
       <c r="H61">
         <v>20.220954726342889</v>
@@ -5708,19 +6210,20 @@
         <v>3.05</v>
       </c>
       <c r="B62">
-        <v>5.3465274322142404</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18.701527432214238</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="D62">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.346527432214241</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10.346527432214241</v>
       </c>
       <c r="E62">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.3684606918018565</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.2166018454596212</v>
       </c>
       <c r="H62">
         <v>12.346527432214241</v>
@@ -5734,19 +6237,20 @@
         <v>3.1</v>
       </c>
       <c r="B63">
-        <v>2.0126102312920322</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15.732610231292036</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="D63">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.0126102312920322</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.0126102312920322</v>
       </c>
       <c r="E63">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.6481333484724732</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.0031500770766111</v>
       </c>
       <c r="H63">
         <v>6.0126102312920322</v>
@@ -5760,19 +6264,20 @@
         <v>3.15</v>
       </c>
       <c r="B64">
-        <v>0.65188166277687409</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>14.746881662776874</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="D64">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.6518816627768746</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.6518816627768738</v>
       </c>
       <c r="E64">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.9414081088446182</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.3773686425913994</v>
       </c>
       <c r="H64">
         <v>6.6518816627768738</v>
@@ -5786,19 +6291,20 @@
         <v>3.2</v>
       </c>
       <c r="B65">
-        <v>0.18167662983055588</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>14.661676629830559</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="D65">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.1816766298305561</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.1816766298305561</v>
       </c>
       <c r="E65">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.4862977757763765</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4770499754004791</v>
       </c>
       <c r="H65">
         <v>5.1816766298305561</v>
@@ -5812,19 +6318,20 @@
         <v>3.25</v>
       </c>
       <c r="B66">
-        <v>4.3566289903297917E-2</v>
+        <f t="shared" ref="B66:B101" ca="1" si="4">D66+E66+F66+G66</f>
+        <v>14.918566289903298</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" ref="C66:C101" ca="1" si="3">RANDBETWEEN(1,10)</f>
-        <v>8</v>
+        <f t="shared" ref="C66:C101" ca="1" si="5">RANDBETWEEN(1,10)</f>
+        <v>4</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D101" ca="1" si="4">B66+C66</f>
-        <v>8.043566289903298</v>
+        <f t="shared" ref="D66:D101" ca="1" si="6">B66+C66</f>
+        <v>4.043566289903298</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E101" ca="1" si="5">SQRT(D66)</f>
-        <v>2.8361181727677178</v>
+        <f t="shared" ref="E66:E101" ca="1" si="7">SQRT(D66)</f>
+        <v>2.0108620763004352</v>
       </c>
       <c r="H66">
         <v>10.043566289903298</v>
@@ -5838,19 +6345,20 @@
         <v>3.3</v>
       </c>
       <c r="B67">
-        <v>8.9892467345564324E-3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15.288989246734554</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="D67">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0089892467345565</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.008989246734556</v>
       </c>
       <c r="E67">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0044845676935792</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.0022460504979294</v>
       </c>
       <c r="H67">
         <v>2.0089892467345565</v>
@@ -5864,19 +6372,20 @@
         <v>3.35</v>
       </c>
       <c r="B68">
-        <v>1.5959424873468646E-3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15.696595942487347</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="D68">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.0015959424873468</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9.0015959424873468</v>
       </c>
       <c r="E68">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.4147777007315838</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.0002659786237866</v>
       </c>
       <c r="H68">
         <v>10.001595942487347</v>
@@ -5890,19 +6399,20 @@
         <v>3.4</v>
       </c>
       <c r="B69">
-        <v>2.4379926065084919E-4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16.120243799260649</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="D69">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.0002437992606517</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.0002437992606508</v>
       </c>
       <c r="E69">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.828470222445457</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.0000609488864711</v>
       </c>
       <c r="H69">
         <v>2.0002437992606508</v>
@@ -5916,19 +6426,20 @@
         <v>3.45</v>
       </c>
       <c r="B70">
-        <v>3.2045624802225964E-5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16.555032045624806</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="D70">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.0000320456248026</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.0000320456248022</v>
       </c>
       <c r="E70">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.0000080113901553</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.000016022684038</v>
       </c>
       <c r="H70">
         <v>3.0000320456248022</v>
@@ -5942,18 +6453,19 @@
         <v>3.5</v>
       </c>
       <c r="B71">
-        <v>3.6243181563071519E-6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>17.000003624318158</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
       </c>
       <c r="D71">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2.0000036243181563</v>
       </c>
       <c r="E71">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1.4142148437624873</v>
       </c>
       <c r="H71">
@@ -5968,19 +6480,20 @@
         <v>3.55</v>
       </c>
       <c r="B72">
-        <v>3.5269970596629361E-7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>17.455000352699706</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="D72">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.0000003526997059</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8.0000003526997059</v>
       </c>
       <c r="E72">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.4142136870712665</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.828427187095278</v>
       </c>
       <c r="H72">
         <v>1.0000003526997059</v>
@@ -5994,19 +6507,20 @@
         <v>3.6</v>
       </c>
       <c r="B73">
-        <v>2.9532831827067695E-8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>17.920000029532833</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
       </c>
       <c r="D73">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0000000295328317</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7.0000000295328322</v>
       </c>
       <c r="E73">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0000000147664159</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.6457513166457711</v>
       </c>
       <c r="H73">
         <v>2.0000000295328317</v>
@@ -6020,19 +6534,20 @@
         <v>3.65</v>
       </c>
       <c r="B74">
-        <v>2.1277779247793678E-9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>18.395000002127777</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="D74">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.000000002127778</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.000000002127778</v>
       </c>
       <c r="E74">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.6457513114667028</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.7320508081831139</v>
       </c>
       <c r="H74">
         <v>7.000000002127778</v>
@@ -6046,19 +6561,20 @@
         <v>3.7</v>
       </c>
       <c r="B75">
-        <v>1.319072654691359E-10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>18.880000000131911</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="D75">
-        <f t="shared" ca="1" si="4"/>
-        <v>10.000000000131907</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9.0000000001319069</v>
       </c>
       <c r="E75">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.1622776601892357</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.0000000000219846</v>
       </c>
       <c r="H75">
         <v>2.0000000001319074</v>
@@ -6072,19 +6588,20 @@
         <v>3.75</v>
       </c>
       <c r="B76">
-        <v>7.0361055753293801E-12</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>19.375000000007034</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="D76">
-        <f t="shared" ca="1" si="4"/>
-        <v>10.000000000007036</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.0000000000070361</v>
       </c>
       <c r="E76">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.162277660169492</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.0000000000035181</v>
       </c>
       <c r="H76">
         <v>7.0000000000070361</v>
@@ -6098,19 +6615,20 @@
         <v>3.8</v>
       </c>
       <c r="B77">
-        <v>3.2293654105137824E-13</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>19.880000000000322</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="D77">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0000000000003229</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7.0000000000003233</v>
       </c>
       <c r="E77">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0000000000001614</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.6457513110646516</v>
       </c>
       <c r="H77">
         <v>5.0000000000003233</v>
@@ -6124,19 +6642,20 @@
         <v>3.85</v>
       </c>
       <c r="B78">
-        <v>1.275331959124432E-14</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20.395000000000017</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="D78">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.0000000000000124</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6.0000000000000124</v>
       </c>
       <c r="E78">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.0000000000000022</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.4494897427831805</v>
       </c>
       <c r="H78">
         <v>9.0000000000000124</v>
@@ -6150,19 +6669,20 @@
         <v>3.9</v>
       </c>
       <c r="B79">
-        <v>4.3336168234130529E-16</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20.919999999999998</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="D79">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
       </c>
       <c r="E79">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.8284271247461903</v>
       </c>
       <c r="H79">
         <v>10</v>
@@ -6176,19 +6696,20 @@
         <v>3.95</v>
       </c>
       <c r="B80">
-        <v>1.2670652662890832E-17</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>21.455000000000002</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="D80">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="E80">
         <f t="shared" ca="1" si="5"/>
         <v>3</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.1622776601683795</v>
       </c>
       <c r="H80">
         <v>8</v>
@@ -6202,19 +6723,20 @@
         <v>4</v>
       </c>
       <c r="B81">
-        <v>3.1876356482950203E-19</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
       <c r="D81">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="E81">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.4494897427831779</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.2360679774997898</v>
       </c>
       <c r="H81">
         <v>7</v>
@@ -6228,19 +6750,20 @@
         <v>4.05</v>
       </c>
       <c r="B82">
-        <v>6.9001665896938664E-21</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>22.555</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="D82">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="E82">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.2360679774997898</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.4142135623730951</v>
       </c>
       <c r="H82">
         <v>10</v>
@@ -6254,19 +6777,20 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B83">
-        <v>1.285202875942424E-22</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>23.119999999999997</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="D83">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
       </c>
       <c r="E83">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.2360679774997898</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.8284271247461903</v>
       </c>
       <c r="H83">
         <v>3</v>
@@ -6280,19 +6804,20 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="B84">
-        <v>2.0597049525926532E-24</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>23.695000000000007</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="D84">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="E84">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.7320508075688772</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -6306,19 +6831,20 @@
         <v>4.2</v>
       </c>
       <c r="B85">
-        <v>2.840269496211404E-26</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>24.28</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>6</v>
       </c>
       <c r="D85">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
       </c>
       <c r="E85">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.4494897427831779</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.6457513110645907</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -6332,18 +6858,19 @@
         <v>4.25</v>
       </c>
       <c r="B86">
-        <v>3.3700418785807531E-28</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>24.875</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="6"/>
         <v>6</v>
       </c>
-      <c r="D86">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
       <c r="E86">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2.4494897427831779</v>
       </c>
       <c r="H86">
@@ -6358,19 +6885,20 @@
         <v>4.3</v>
       </c>
       <c r="B87">
-        <v>3.4405847315219286E-30</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>25.479999999999997</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="D87">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
       </c>
       <c r="E87">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.6457513110645907</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.8284271247461903</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -6384,19 +6912,20 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="B88">
-        <v>3.0223894837074874E-32</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26.094999999999992</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="D88">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="E88">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.2360679774997898</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="H88">
         <v>10</v>
@@ -6410,19 +6939,20 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B89">
-        <v>2.2844929019940534E-34</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26.720000000000006</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="D89">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
       </c>
       <c r="E89">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.7320508075688772</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.1622776601683795</v>
       </c>
       <c r="H89">
         <v>8</v>
@@ -6436,19 +6966,20 @@
         <v>4.45</v>
       </c>
       <c r="B90">
-        <v>1.4857659745868778E-36</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27.355000000000004</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="D90">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="E90">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.7320508075688772</v>
       </c>
       <c r="H90">
         <v>4</v>
@@ -6462,19 +6993,20 @@
         <v>4.5</v>
       </c>
       <c r="B91">
-        <v>8.3144249122083645E-39</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>28</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="D91">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
       </c>
       <c r="E91">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.6457513110645907</v>
       </c>
       <c r="H91">
         <v>6</v>
@@ -6488,19 +7020,20 @@
         <v>4.55</v>
       </c>
       <c r="B92">
-        <v>4.003457610875762E-41</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>28.654999999999994</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>6</v>
       </c>
       <c r="D92">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
       </c>
       <c r="E92">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.4494897427831779</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.8284271247461903</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -6514,18 +7047,19 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B93">
-        <v>1.6586679969061633E-43</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>29.319999999999993</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="6"/>
         <v>10</v>
       </c>
-      <c r="D93">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
       <c r="E93">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3.1622776601683795</v>
       </c>
       <c r="H93">
@@ -6540,19 +7074,20 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="B94">
-        <v>5.9129595470976118E-46</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>29.995000000000005</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="D94">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
       </c>
       <c r="E94">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.2360679774997898</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
       <c r="H94">
         <v>5</v>
@@ -6566,19 +7101,20 @@
         <v>4.7</v>
       </c>
       <c r="B95">
-        <v>1.8137255133878395E-48</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>30.680000000000007</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="D95">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="E95">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.4494897427831779</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="H95">
         <v>4</v>
@@ -6592,19 +7128,20 @@
         <v>4.75</v>
       </c>
       <c r="B96">
-        <v>4.7869559200038053E-51</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>31.375</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="D96">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
       </c>
       <c r="E96">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.1622776601683795</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
       <c r="H96">
         <v>5</v>
@@ -6618,19 +7155,20 @@
         <v>4.8</v>
       </c>
       <c r="B97">
-        <v>1.0870975233671503E-53</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>32.08</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="D97">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="E97">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.2360679774997898</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="H97">
         <v>5</v>
@@ -6644,19 +7182,20 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="B98">
-        <v>2.1242165888895017E-56</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>32.794999999999995</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="D98">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="E98">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.4142135623730951</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.2360679774997898</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -6670,19 +7209,20 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B99">
-        <v>3.5714970659114852E-59</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>33.52000000000001</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
       </c>
       <c r="D99">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
       </c>
       <c r="E99">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.4142135623730951</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.1622776601683795</v>
       </c>
       <c r="H99">
         <v>5</v>
@@ -6696,19 +7236,20 @@
         <v>4.95</v>
       </c>
       <c r="B100">
-        <v>5.1668161816555451E-62</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.255000000000003</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="D100">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
       </c>
       <c r="E100">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.6457513110645907</v>
       </c>
       <c r="H100">
         <v>4</v>
@@ -6722,19 +7263,20 @@
         <v>5</v>
       </c>
       <c r="B101">
-        <v>6.4315690440138026E-65</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>35</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="D101">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="E101">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="H101">
         <v>3</v>
